--- a/res/xlsx_files/Analysis_Result_A2.xlsx
+++ b/res/xlsx_files/Analysis_Result_A2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="625">
   <si>
     <t>Lot</t>
   </si>
@@ -73,6 +73,12 @@
     <t>D08</t>
   </si>
   <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
     <t>LION1</t>
   </si>
   <si>
@@ -88,37 +94,322 @@
     <t>MZMOTE_LULAB_380_500</t>
   </si>
   <si>
+    <t>20190715_191703</t>
+  </si>
+  <si>
+    <t>20190715_192309</t>
+  </si>
+  <si>
+    <t>20190715_202341</t>
+  </si>
+  <si>
+    <t>20190715_195307</t>
+  </si>
+  <si>
+    <t>20190715_194108</t>
+  </si>
+  <si>
+    <t>20190715_202959</t>
+  </si>
+  <si>
+    <t>20190715_194708</t>
+  </si>
+  <si>
+    <t>20190715_195915</t>
+  </si>
+  <si>
     <t>20190715_191052</t>
   </si>
   <si>
+    <t>20190715_193508</t>
+  </si>
+  <si>
+    <t>20190715_192908</t>
+  </si>
+  <si>
+    <t>20190715_200520</t>
+  </si>
+  <si>
+    <t>20190715_201718</t>
+  </si>
+  <si>
+    <t>20190715_201119</t>
+  </si>
+  <si>
+    <t>20190526_092407</t>
+  </si>
+  <si>
+    <t>20190526_095558</t>
+  </si>
+  <si>
+    <t>20190526_151522</t>
+  </si>
+  <si>
+    <t>20190526_123544</t>
+  </si>
+  <si>
+    <t>20190526_113153</t>
+  </si>
+  <si>
+    <t>20190526_154716</t>
+  </si>
+  <si>
+    <t>20190526_120346</t>
+  </si>
+  <si>
+    <t>20190526_130736</t>
+  </si>
+  <si>
     <t>20190526_085211</t>
   </si>
   <si>
+    <t>20190526_110000</t>
+  </si>
+  <si>
+    <t>20190526_102802</t>
+  </si>
+  <si>
+    <t>20190526_133930</t>
+  </si>
+  <si>
+    <t>20190526_144325</t>
+  </si>
+  <si>
+    <t>20190526_141126</t>
+  </si>
+  <si>
+    <t>20190712_120046</t>
+  </si>
+  <si>
+    <t>20190712_120228</t>
+  </si>
+  <si>
+    <t>20190712_121941</t>
+  </si>
+  <si>
+    <t>20190712_121111</t>
+  </si>
+  <si>
+    <t>20190712_120730</t>
+  </si>
+  <si>
+    <t>20190712_122113</t>
+  </si>
+  <si>
+    <t>20190712_120901</t>
+  </si>
+  <si>
+    <t>20190712_121244</t>
+  </si>
+  <si>
     <t>20190712_115915</t>
   </si>
   <si>
-    <t>20190715_192908</t>
-  </si>
-  <si>
-    <t>20190526_102802</t>
+    <t>20190712_120553</t>
   </si>
   <si>
     <t>20190712_120409</t>
   </si>
   <si>
+    <t>20190712_121443</t>
+  </si>
+  <si>
+    <t>20190712_121808</t>
+  </si>
+  <si>
+    <t>20190712_121627</t>
+  </si>
+  <si>
+    <t>20190531_081952</t>
+  </si>
+  <si>
+    <t>20190531_085346</t>
+  </si>
+  <si>
+    <t>20190531_143204</t>
+  </si>
+  <si>
+    <t>20190531_114251</t>
+  </si>
+  <si>
+    <t>20190531_103513</t>
+  </si>
+  <si>
+    <t>20190531_150551</t>
+  </si>
+  <si>
+    <t>20190531_110901</t>
+  </si>
+  <si>
+    <t>20190531_121641</t>
+  </si>
+  <si>
+    <t>20190531_074558</t>
+  </si>
+  <si>
+    <t>20190531_100126</t>
+  </si>
+  <si>
+    <t>20190531_092738</t>
+  </si>
+  <si>
+    <t>20190531_125034</t>
+  </si>
+  <si>
+    <t>20190531_135811</t>
+  </si>
+  <si>
+    <t>20190531_132424</t>
+  </si>
+  <si>
+    <t>20190603_205948</t>
+  </si>
+  <si>
+    <t>20190603_210815</t>
+  </si>
+  <si>
+    <t>20190603_223251</t>
+  </si>
+  <si>
+    <t>20190603_215030</t>
+  </si>
+  <si>
+    <t>20190603_213337</t>
+  </si>
+  <si>
+    <t>20190603_224118</t>
+  </si>
+  <si>
+    <t>20190603_214204</t>
+  </si>
+  <si>
+    <t>20190603_215859</t>
+  </si>
+  <si>
+    <t>20190603_205120</t>
+  </si>
+  <si>
+    <t>20190603_212511</t>
+  </si>
+  <si>
+    <t>20190603_211644</t>
+  </si>
+  <si>
+    <t>20190603_220728</t>
+  </si>
+  <si>
+    <t>20190603_222421</t>
+  </si>
+  <si>
+    <t>20190603_221553</t>
+  </si>
+  <si>
+    <t>20190531_161717</t>
+  </si>
+  <si>
+    <t>20190531_165102</t>
+  </si>
+  <si>
+    <t>20190531_222920</t>
+  </si>
+  <si>
+    <t>20190531_194007</t>
+  </si>
+  <si>
+    <t>20190531_183234</t>
+  </si>
+  <si>
+    <t>20190531_230308</t>
+  </si>
+  <si>
+    <t>20190531_190621</t>
+  </si>
+  <si>
+    <t>20190531_201404</t>
+  </si>
+  <si>
+    <t>20190531_154329</t>
+  </si>
+  <si>
+    <t>20190531_175843</t>
+  </si>
+  <si>
+    <t>20190531_172453</t>
+  </si>
+  <si>
+    <t>20190531_204749</t>
+  </si>
+  <si>
+    <t>20190531_215528</t>
+  </si>
+  <si>
+    <t>20190531_212138</t>
+  </si>
+  <si>
+    <t>20190603_230159</t>
+  </si>
+  <si>
+    <t>20190603_231026</t>
+  </si>
+  <si>
+    <t>20190604_003502</t>
+  </si>
+  <si>
+    <t>20190603_235243</t>
+  </si>
+  <si>
+    <t>20190603_233550</t>
+  </si>
+  <si>
+    <t>20190604_004328</t>
+  </si>
+  <si>
+    <t>20190603_234417</t>
+  </si>
+  <si>
+    <t>20190604_000110</t>
+  </si>
+  <si>
+    <t>20190603_225333</t>
+  </si>
+  <si>
+    <t>20190603_232720</t>
+  </si>
+  <si>
+    <t>20190603_231854</t>
+  </si>
+  <si>
+    <t>20190604_000937</t>
+  </si>
+  <si>
+    <t>20190604_002634</t>
+  </si>
+  <si>
+    <t>20190604_001807</t>
+  </si>
+  <si>
     <t>ykim</t>
   </si>
   <si>
     <t>magdzi83</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>3</t>
   </si>
   <si>
     <t>1550</t>
@@ -127,97 +418,1477 @@
     <t>1310</t>
   </si>
   <si>
+    <t>0.9984335299218047</t>
+  </si>
+  <si>
+    <t>0.9972272295976409</t>
+  </si>
+  <si>
+    <t>0.9971718109638955</t>
+  </si>
+  <si>
+    <t>0.9961624632968927</t>
+  </si>
+  <si>
+    <t>0.9981042240560483</t>
+  </si>
+  <si>
+    <t>0.9988762153621976</t>
+  </si>
+  <si>
+    <t>0.9951006161495864</t>
+  </si>
+  <si>
+    <t>0.9971876242211088</t>
+  </si>
+  <si>
     <t>0.9985871151066114</t>
   </si>
   <si>
+    <t>0.9973770602840623</t>
+  </si>
+  <si>
+    <t>0.9983006639710426</t>
+  </si>
+  <si>
+    <t>0.9982132151816073</t>
+  </si>
+  <si>
+    <t>0.9967785387215327</t>
+  </si>
+  <si>
+    <t>0.9989505073266755</t>
+  </si>
+  <si>
+    <t>0.9989024615614598</t>
+  </si>
+  <si>
+    <t>0.9994525281565656</t>
+  </si>
+  <si>
+    <t>0.9993822894658834</t>
+  </si>
+  <si>
+    <t>0.999162808315126</t>
+  </si>
+  <si>
+    <t>0.9995085739121361</t>
+  </si>
+  <si>
+    <t>0.9994534683095605</t>
+  </si>
+  <si>
+    <t>0.9990567138256141</t>
+  </si>
+  <si>
+    <t>0.9994107625772973</t>
+  </si>
+  <si>
     <t>0.9986124501754576</t>
   </si>
   <si>
+    <t>0.9992476026273677</t>
+  </si>
+  <si>
+    <t>0.9973924003108876</t>
+  </si>
+  <si>
+    <t>0.999284863027567</t>
+  </si>
+  <si>
+    <t>0.9992171482574878</t>
+  </si>
+  <si>
+    <t>0.9989658157962185</t>
+  </si>
+  <si>
+    <t>0.9965340758797052</t>
+  </si>
+  <si>
+    <t>0.9967703350059665</t>
+  </si>
+  <si>
+    <t>0.9965830872398641</t>
+  </si>
+  <si>
+    <t>0.9952367601438146</t>
+  </si>
+  <si>
+    <t>0.9967453918292941</t>
+  </si>
+  <si>
+    <t>0.9959696974117476</t>
+  </si>
+  <si>
+    <t>0.9949078481918969</t>
+  </si>
+  <si>
+    <t>0.9955333372762666</t>
+  </si>
+  <si>
     <t>0.9975699706209751</t>
   </si>
   <si>
-    <t>0.9983006639710426</t>
-  </si>
-  <si>
-    <t>0.9973924003108876</t>
+    <t>0.9959497188520161</t>
   </si>
   <si>
     <t>0.9971852644762624</t>
   </si>
   <si>
+    <t>0.997231076778854</t>
+  </si>
+  <si>
+    <t>0.9972863067209384</t>
+  </si>
+  <si>
+    <t>0.9970643393393861</t>
+  </si>
+  <si>
+    <t>0.9980813941669834</t>
+  </si>
+  <si>
+    <t>0.9991887280317217</t>
+  </si>
+  <si>
+    <t>0.9989002381033905</t>
+  </si>
+  <si>
+    <t>0.9988192067194802</t>
+  </si>
+  <si>
+    <t>0.9993618356473739</t>
+  </si>
+  <si>
+    <t>0.9992179450213141</t>
+  </si>
+  <si>
+    <t>0.9986285013711033</t>
+  </si>
+  <si>
+    <t>0.9991418184786629</t>
+  </si>
+  <si>
+    <t>0.9977364457314137</t>
+  </si>
+  <si>
+    <t>0.998755789865003</t>
+  </si>
+  <si>
+    <t>0.9981064298130347</t>
+  </si>
+  <si>
+    <t>0.9982180290474957</t>
+  </si>
+  <si>
+    <t>0.9985473610806621</t>
+  </si>
+  <si>
+    <t>0.9982736941227117</t>
+  </si>
+  <si>
+    <t>0.9986254849572983</t>
+  </si>
+  <si>
+    <t>0.9991123113896673</t>
+  </si>
+  <si>
+    <t>0.999058158314108</t>
+  </si>
+  <si>
+    <t>0.9987248785106028</t>
+  </si>
+  <si>
+    <t>0.9994059452293808</t>
+  </si>
+  <si>
+    <t>0.9992141369881588</t>
+  </si>
+  <si>
+    <t>0.9985991416554821</t>
+  </si>
+  <si>
+    <t>0.9990385805933151</t>
+  </si>
+  <si>
+    <t>0.9975905926407105</t>
+  </si>
+  <si>
+    <t>0.998936329228086</t>
+  </si>
+  <si>
+    <t>0.9979837673337183</t>
+  </si>
+  <si>
+    <t>0.9981686796139948</t>
+  </si>
+  <si>
+    <t>0.9984356881288199</t>
+  </si>
+  <si>
+    <t>0.9982631867279346</t>
+  </si>
+  <si>
+    <t>0.9988517885434574</t>
+  </si>
+  <si>
+    <t>0.9991594449266507</t>
+  </si>
+  <si>
+    <t>0.9989181430317752</t>
+  </si>
+  <si>
+    <t>0.9987801848025839</t>
+  </si>
+  <si>
+    <t>0.9991914726996627</t>
+  </si>
+  <si>
+    <t>0.999248889574946</t>
+  </si>
+  <si>
+    <t>0.9985840596873695</t>
+  </si>
+  <si>
+    <t>0.9992040396803085</t>
+  </si>
+  <si>
+    <t>0.9983465605340585</t>
+  </si>
+  <si>
+    <t>0.9989030104683979</t>
+  </si>
+  <si>
+    <t>0.998216031791657</t>
+  </si>
+  <si>
+    <t>0.9989486565158879</t>
+  </si>
+  <si>
+    <t>0.9988698388085441</t>
+  </si>
+  <si>
+    <t>0.9986443167857538</t>
+  </si>
+  <si>
+    <t>0.9984660028115715</t>
+  </si>
+  <si>
+    <t>0.9993191756678806</t>
+  </si>
+  <si>
+    <t>0.9990406190096882</t>
+  </si>
+  <si>
+    <t>0.9987695892810518</t>
+  </si>
+  <si>
+    <t>0.9990775854826334</t>
+  </si>
+  <si>
+    <t>0.999126849912242</t>
+  </si>
+  <si>
+    <t>0.9988188376691224</t>
+  </si>
+  <si>
+    <t>0.9992198626776753</t>
+  </si>
+  <si>
+    <t>0.9982941484457439</t>
+  </si>
+  <si>
+    <t>0.9989324945648942</t>
+  </si>
+  <si>
+    <t>0.9983712978563709</t>
+  </si>
+  <si>
+    <t>0.9987606655732324</t>
+  </si>
+  <si>
+    <t>0.9980039267221822</t>
+  </si>
+  <si>
+    <t>0.9985977662106833</t>
+  </si>
+  <si>
+    <t>-7.706903457641602</t>
+  </si>
+  <si>
+    <t>-8.910146713256836</t>
+  </si>
+  <si>
+    <t>-9.376518249511719</t>
+  </si>
+  <si>
+    <t>-8.18753433227539</t>
+  </si>
+  <si>
+    <t>-8.77216625213623</t>
+  </si>
+  <si>
+    <t>-9.400176048278809</t>
+  </si>
+  <si>
+    <t>-9.466469764709473</t>
+  </si>
+  <si>
+    <t>-9.5784330368042</t>
+  </si>
+  <si>
     <t>-7.655776023864746</t>
   </si>
   <si>
+    <t>-7.897572994232178</t>
+  </si>
+  <si>
+    <t>-8.010892868041992</t>
+  </si>
+  <si>
+    <t>-9.296346664428711</t>
+  </si>
+  <si>
+    <t>-8.184820175170898</t>
+  </si>
+  <si>
+    <t>-8.617244720458984</t>
+  </si>
+  <si>
+    <t>-5.2746710777282715</t>
+  </si>
+  <si>
+    <t>-5.343724727630615</t>
+  </si>
+  <si>
+    <t>-6.145711898803711</t>
+  </si>
+  <si>
+    <t>-5.836416721343994</t>
+  </si>
+  <si>
+    <t>-5.431687831878662</t>
+  </si>
+  <si>
+    <t>-6.433998107910156</t>
+  </si>
+  <si>
+    <t>-6.07033109664917</t>
+  </si>
+  <si>
+    <t>-6.224576473236084</t>
+  </si>
+  <si>
     <t>-5.705437660217285</t>
   </si>
   <si>
+    <t>-5.233897686004639</t>
+  </si>
+  <si>
+    <t>-5.642453193664551</t>
+  </si>
+  <si>
+    <t>-6.260358810424805</t>
+  </si>
+  <si>
+    <t>-5.628704071044922</t>
+  </si>
+  <si>
+    <t>-5.873229503631592</t>
+  </si>
+  <si>
+    <t>-8.444914128415956</t>
+  </si>
+  <si>
+    <t>-9.213680948763646</t>
+  </si>
+  <si>
+    <t>-9.861534733650439</t>
+  </si>
+  <si>
+    <t>-8.68563055024164</t>
+  </si>
+  <si>
+    <t>-9.050265626127075</t>
+  </si>
+  <si>
+    <t>-9.947949007274541</t>
+  </si>
+  <si>
+    <t>-8.988276488796929</t>
+  </si>
+  <si>
+    <t>-10.177454350325856</t>
+  </si>
+  <si>
     <t>-9.18358306058825</t>
   </si>
   <si>
-    <t>-8.010892868041992</t>
-  </si>
-  <si>
-    <t>-5.642453193664551</t>
+    <t>-8.278760104532308</t>
   </si>
   <si>
     <t>-9.075250786039327</t>
   </si>
   <si>
+    <t>-10.45963629309971</t>
+  </si>
+  <si>
+    <t>-9.465441021890829</t>
+  </si>
+  <si>
+    <t>-9.657217317337915</t>
+  </si>
+  <si>
+    <t>-5.525899887084961</t>
+  </si>
+  <si>
+    <t>-5.481581211090088</t>
+  </si>
+  <si>
+    <t>-6.062084674835205</t>
+  </si>
+  <si>
+    <t>-6.239155292510986</t>
+  </si>
+  <si>
+    <t>-5.252536296844482</t>
+  </si>
+  <si>
+    <t>-6.307421684265137</t>
+  </si>
+  <si>
+    <t>-6.560473442077637</t>
+  </si>
+  <si>
+    <t>-6.075681686401367</t>
+  </si>
+  <si>
+    <t>-5.880475044250488</t>
+  </si>
+  <si>
+    <t>-5.243660926818848</t>
+  </si>
+  <si>
+    <t>-5.5092267990112305</t>
+  </si>
+  <si>
+    <t>-6.574255466461182</t>
+  </si>
+  <si>
+    <t>-5.624571323394775</t>
+  </si>
+  <si>
+    <t>-6.167811393737793</t>
+  </si>
+  <si>
+    <t>-5.4470319747924805</t>
+  </si>
+  <si>
+    <t>-5.554928302764893</t>
+  </si>
+  <si>
+    <t>-6.114597320556641</t>
+  </si>
+  <si>
+    <t>-6.387868881225586</t>
+  </si>
+  <si>
+    <t>-5.391937732696533</t>
+  </si>
+  <si>
+    <t>-6.205504417419434</t>
+  </si>
+  <si>
+    <t>-6.746885776519775</t>
+  </si>
+  <si>
+    <t>-6.246076583862305</t>
+  </si>
+  <si>
+    <t>-5.822120189666748</t>
+  </si>
+  <si>
+    <t>-5.249536037445068</t>
+  </si>
+  <si>
+    <t>-5.542170524597168</t>
+  </si>
+  <si>
+    <t>-6.589053153991699</t>
+  </si>
+  <si>
+    <t>-5.626934051513672</t>
+  </si>
+  <si>
+    <t>-6.191649913787842</t>
+  </si>
+  <si>
+    <t>-5.43178653717041</t>
+  </si>
+  <si>
+    <t>-5.667716026306152</t>
+  </si>
+  <si>
+    <t>-6.43640661239624</t>
+  </si>
+  <si>
+    <t>-6.657200336456299</t>
+  </si>
+  <si>
+    <t>-5.393341064453125</t>
+  </si>
+  <si>
+    <t>-6.643723964691162</t>
+  </si>
+  <si>
+    <t>-7.048968315124512</t>
+  </si>
+  <si>
+    <t>-6.105777740478516</t>
+  </si>
+  <si>
+    <t>-5.597927093505859</t>
+  </si>
+  <si>
+    <t>-5.590353012084961</t>
+  </si>
+  <si>
+    <t>-5.61832857131958</t>
+  </si>
+  <si>
+    <t>-5.9893999099731445</t>
+  </si>
+  <si>
+    <t>-5.527715682983398</t>
+  </si>
+  <si>
+    <t>-5.8534255027771</t>
+  </si>
+  <si>
+    <t>-5.46799373626709</t>
+  </si>
+  <si>
+    <t>-5.525676250457764</t>
+  </si>
+  <si>
+    <t>-6.539792060852051</t>
+  </si>
+  <si>
+    <t>-6.596004962921143</t>
+  </si>
+  <si>
+    <t>-5.268948554992676</t>
+  </si>
+  <si>
+    <t>-6.539316654205322</t>
+  </si>
+  <si>
+    <t>-6.7763590812683105</t>
+  </si>
+  <si>
+    <t>-5.993927001953125</t>
+  </si>
+  <si>
+    <t>-5.580395221710205</t>
+  </si>
+  <si>
+    <t>-5.57945442199707</t>
+  </si>
+  <si>
+    <t>-5.534558296203613</t>
+  </si>
+  <si>
+    <t>-5.957448482513428</t>
+  </si>
+  <si>
+    <t>-5.796686172485352</t>
+  </si>
+  <si>
+    <t>-5.815927982330322</t>
+  </si>
+  <si>
+    <t>-14.851442337036133</t>
+  </si>
+  <si>
+    <t>-14.91335678100586</t>
+  </si>
+  <si>
+    <t>-15.876201629638672</t>
+  </si>
+  <si>
+    <t>-12.909049987792969</t>
+  </si>
+  <si>
+    <t>-15.637944221496582</t>
+  </si>
+  <si>
+    <t>-16.327085494995117</t>
+  </si>
+  <si>
+    <t>-14.184826850891113</t>
+  </si>
+  <si>
+    <t>-15.130650520324707</t>
+  </si>
+  <si>
     <t>-15.632038116455078</t>
   </si>
   <si>
+    <t>-15.304069519042969</t>
+  </si>
+  <si>
+    <t>-17.65786361694336</t>
+  </si>
+  <si>
+    <t>-16.749731063842773</t>
+  </si>
+  <si>
+    <t>-15.685465812683105</t>
+  </si>
+  <si>
+    <t>-17.60350227355957</t>
+  </si>
+  <si>
+    <t>-23.927927017211914</t>
+  </si>
+  <si>
+    <t>-28.23140525817871</t>
+  </si>
+  <si>
+    <t>-29.58895492553711</t>
+  </si>
+  <si>
+    <t>-26.114166259765625</t>
+  </si>
+  <si>
+    <t>-28.965280532836914</t>
+  </si>
+  <si>
+    <t>-27.785797119140625</t>
+  </si>
+  <si>
+    <t>-25.846256256103516</t>
+  </si>
+  <si>
+    <t>-27.522436141967773</t>
+  </si>
+  <si>
     <t>-19.35059928894043</t>
   </si>
   <si>
+    <t>-26.265666961669922</t>
+  </si>
+  <si>
+    <t>-21.92637062072754</t>
+  </si>
+  <si>
+    <t>-24.735254287719727</t>
+  </si>
+  <si>
+    <t>-24.745033264160156</t>
+  </si>
+  <si>
+    <t>-23.713764190673828</t>
+  </si>
+  <si>
+    <t>-19.41927097027498</t>
+  </si>
+  <si>
+    <t>-19.435391284227865</t>
+  </si>
+  <si>
+    <t>-19.818776397940496</t>
+  </si>
+  <si>
+    <t>-18.683493874197318</t>
+  </si>
+  <si>
+    <t>-19.212205794972014</t>
+  </si>
+  <si>
+    <t>-19.110115749820455</t>
+  </si>
+  <si>
+    <t>-17.813533055218223</t>
+  </si>
+  <si>
+    <t>-19.2140430419752</t>
+  </si>
+  <si>
     <t>-22.05901800487276</t>
   </si>
   <si>
-    <t>-17.65786361694336</t>
-  </si>
-  <si>
-    <t>-21.92637062072754</t>
+    <t>-18.76256575025673</t>
   </si>
   <si>
     <t>-21.52332544165403</t>
   </si>
   <si>
+    <t>-21.38693399285619</t>
+  </si>
+  <si>
+    <t>-21.13714861568723</t>
+  </si>
+  <si>
+    <t>-21.85815106846393</t>
+  </si>
+  <si>
+    <t>-24.427156448364258</t>
+  </si>
+  <si>
+    <t>-29.048311233520508</t>
+  </si>
+  <si>
+    <t>-27.13418197631836</t>
+  </si>
+  <si>
+    <t>-26.504499435424805</t>
+  </si>
+  <si>
+    <t>-28.8160400390625</t>
+  </si>
+  <si>
+    <t>-27.635122299194336</t>
+  </si>
+  <si>
+    <t>-24.78766441345215</t>
+  </si>
+  <si>
+    <t>-28.792505264282227</t>
+  </si>
+  <si>
+    <t>-23.229843139648438</t>
+  </si>
+  <si>
+    <t>-24.848163604736328</t>
+  </si>
+  <si>
+    <t>-22.93438720703125</t>
+  </si>
+  <si>
+    <t>-22.994478225708008</t>
+  </si>
+  <si>
+    <t>-23.612525939941406</t>
+  </si>
+  <si>
+    <t>-21.822904586791992</t>
+  </si>
+  <si>
+    <t>-23.971954345703125</t>
+  </si>
+  <si>
+    <t>-28.421772003173828</t>
+  </si>
+  <si>
+    <t>-29.393722534179688</t>
+  </si>
+  <si>
+    <t>-27.167442321777344</t>
+  </si>
+  <si>
+    <t>-30.594209671020508</t>
+  </si>
+  <si>
+    <t>-29.557632446289062</t>
+  </si>
+  <si>
+    <t>-25.312469482421875</t>
+  </si>
+  <si>
+    <t>-30.339338302612305</t>
+  </si>
+  <si>
+    <t>-22.60677719116211</t>
+  </si>
+  <si>
+    <t>-26.765039443969727</t>
+  </si>
+  <si>
+    <t>-23.90804672241211</t>
+  </si>
+  <si>
+    <t>-22.15772247314453</t>
+  </si>
+  <si>
+    <t>-24.13943862915039</t>
+  </si>
+  <si>
+    <t>-22.505022048950195</t>
+  </si>
+  <si>
+    <t>-24.41455078125</t>
+  </si>
+  <si>
+    <t>-31.503658294677734</t>
+  </si>
+  <si>
+    <t>-30.64484977722168</t>
+  </si>
+  <si>
+    <t>-27.573291778564453</t>
+  </si>
+  <si>
+    <t>-31.811119079589844</t>
+  </si>
+  <si>
+    <t>-31.23647689819336</t>
+  </si>
+  <si>
+    <t>-25.851858139038086</t>
+  </si>
+  <si>
+    <t>-31.574810028076172</t>
+  </si>
+  <si>
+    <t>-21.64788055419922</t>
+  </si>
+  <si>
+    <t>-26.448415756225586</t>
+  </si>
+  <si>
+    <t>-23.24966812133789</t>
+  </si>
+  <si>
+    <t>-26.96991539001465</t>
+  </si>
+  <si>
+    <t>-26.68773651123047</t>
+  </si>
+  <si>
+    <t>-24.625017166137695</t>
+  </si>
+  <si>
+    <t>-23.40755844116211</t>
+  </si>
+  <si>
+    <t>-32.741905212402344</t>
+  </si>
+  <si>
+    <t>-29.4156494140625</t>
+  </si>
+  <si>
+    <t>-27.813413619995117</t>
+  </si>
+  <si>
+    <t>-30.3807373046875</t>
+  </si>
+  <si>
+    <t>-30.928485870361328</t>
+  </si>
+  <si>
+    <t>-26.7033634185791</t>
+  </si>
+  <si>
+    <t>-30.94794273376465</t>
+  </si>
+  <si>
+    <t>-22.054672241210938</t>
+  </si>
+  <si>
+    <t>-26.778345108032227</t>
+  </si>
+  <si>
+    <t>-22.665781021118164</t>
+  </si>
+  <si>
+    <t>-26.740142822265625</t>
+  </si>
+  <si>
+    <t>-26.802186965942383</t>
+  </si>
+  <si>
+    <t>-24.61879539489746</t>
+  </si>
+  <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>0.9999999999999999</t>
+  </si>
+  <si>
+    <t>2.603237e-08</t>
+  </si>
+  <si>
+    <t>4.890819e-08</t>
+  </si>
+  <si>
+    <t>4.591942e-08</t>
+  </si>
+  <si>
+    <t>5.465495e-08</t>
+  </si>
+  <si>
+    <t>4.814727e-08</t>
+  </si>
+  <si>
+    <t>6.663287e-08</t>
+  </si>
+  <si>
+    <t>7.783068e-08</t>
+  </si>
+  <si>
+    <t>6.760271e-08</t>
+  </si>
+  <si>
     <t>8.955287e-09</t>
   </si>
   <si>
+    <t>4.150557e-08</t>
+  </si>
+  <si>
+    <t>4.594612e-08</t>
+  </si>
+  <si>
+    <t>6.184592e-08</t>
+  </si>
+  <si>
+    <t>4.804727e-08</t>
+  </si>
+  <si>
+    <t>4.971618e-08</t>
+  </si>
+  <si>
+    <t>5.312546e-08</t>
+  </si>
+  <si>
+    <t>6.287032e-08</t>
+  </si>
+  <si>
+    <t>5.356805e-08</t>
+  </si>
+  <si>
+    <t>6.76181e-08</t>
+  </si>
+  <si>
+    <t>3.847792e-08</t>
+  </si>
+  <si>
+    <t>5.937685e-08</t>
+  </si>
+  <si>
+    <t>7.64046e-08</t>
+  </si>
+  <si>
+    <t>7.636219e-08</t>
+  </si>
+  <si>
     <t>7.203803e-08</t>
   </si>
   <si>
+    <t>3.444476e-08</t>
+  </si>
+  <si>
+    <t>3.536833e-08</t>
+  </si>
+  <si>
+    <t>6.346043e-08</t>
+  </si>
+  <si>
+    <t>3.94475e-08</t>
+  </si>
+  <si>
+    <t>5.300257e-08</t>
+  </si>
+  <si>
+    <t>-1.080882e-12</t>
+  </si>
+  <si>
+    <t>4.894235e-10</t>
+  </si>
+  <si>
+    <t>2.689357e-10</t>
+  </si>
+  <si>
+    <t>5.6015e-10</t>
+  </si>
+  <si>
+    <t>2.785752e-10</t>
+  </si>
+  <si>
+    <t>1.991348e-09</t>
+  </si>
+  <si>
+    <t>2.718284e-09</t>
+  </si>
+  <si>
+    <t>2.07831e-09</t>
+  </si>
+  <si>
     <t>-5.754345e-12</t>
   </si>
   <si>
-    <t>4.594612e-08</t>
-  </si>
-  <si>
-    <t>3.536833e-08</t>
+    <t>7.961963e-11</t>
   </si>
   <si>
     <t>4.573714e-11</t>
   </si>
   <si>
+    <t>1.951419e-09</t>
+  </si>
+  <si>
+    <t>3.995418e-10</t>
+  </si>
+  <si>
+    <t>8.534919e-10</t>
+  </si>
+  <si>
+    <t>-1.208074e-10</t>
+  </si>
+  <si>
+    <t>-1.187963e-10</t>
+  </si>
+  <si>
+    <t>-1.212264e-10</t>
+  </si>
+  <si>
+    <t>-1.176231e-10</t>
+  </si>
+  <si>
+    <t>-1.207655e-10</t>
+  </si>
+  <si>
+    <t>-1.206398e-10</t>
+  </si>
+  <si>
+    <t>-1.177069e-10</t>
+  </si>
+  <si>
+    <t>-1.202628e-10</t>
+  </si>
+  <si>
+    <t>-1.195505e-10</t>
+  </si>
+  <si>
+    <t>-1.202209e-10</t>
+  </si>
+  <si>
+    <t>-1.171204e-10</t>
+  </si>
+  <si>
+    <t>-1.203885e-10</t>
+  </si>
+  <si>
+    <t>-1.167433e-10</t>
+  </si>
+  <si>
+    <t>2.139364e-07</t>
+  </si>
+  <si>
+    <t>2.206549e-07</t>
+  </si>
+  <si>
+    <t>1.337233e-07</t>
+  </si>
+  <si>
+    <t>1.893912e-07</t>
+  </si>
+  <si>
+    <t>1.735403e-07</t>
+  </si>
+  <si>
+    <t>1.435766e-07</t>
+  </si>
+  <si>
+    <t>1.996838e-07</t>
+  </si>
+  <si>
+    <t>1.758982e-07</t>
+  </si>
+  <si>
+    <t>2.389178e-07</t>
+  </si>
+  <si>
+    <t>1.709376e-07</t>
+  </si>
+  <si>
+    <t>1.885348e-07</t>
+  </si>
+  <si>
+    <t>1.556117e-07</t>
+  </si>
+  <si>
+    <t>1.302277e-07</t>
+  </si>
+  <si>
+    <t>1.358143e-07</t>
+  </si>
+  <si>
+    <t>-1.17707e-10</t>
+  </si>
+  <si>
+    <t>-1.184192e-10</t>
+  </si>
+  <si>
+    <t>-1.196762e-10</t>
+  </si>
+  <si>
+    <t>-1.205979e-10</t>
+  </si>
+  <si>
+    <t>-1.227765e-10</t>
+  </si>
+  <si>
+    <t>-1.130561e-10</t>
+  </si>
+  <si>
+    <t>-1.203047e-10</t>
+  </si>
+  <si>
+    <t>-1.223995e-10</t>
+  </si>
+  <si>
+    <t>-1.200114e-10</t>
+  </si>
+  <si>
+    <t>-1.209331e-10</t>
+  </si>
+  <si>
+    <t>-1.228184e-10</t>
+  </si>
+  <si>
+    <t>-1.191315e-10</t>
+  </si>
+  <si>
+    <t>-1.204304e-10</t>
+  </si>
+  <si>
+    <t>-1.218548e-10</t>
+  </si>
+  <si>
+    <t>3.047158e-07</t>
+  </si>
+  <si>
+    <t>2.998289e-07</t>
+  </si>
+  <si>
+    <t>2.330585e-07</t>
+  </si>
+  <si>
+    <t>2.549133e-07</t>
+  </si>
+  <si>
+    <t>2.656578e-07</t>
+  </si>
+  <si>
+    <t>2.258531e-07</t>
+  </si>
+  <si>
+    <t>2.633351e-07</t>
+  </si>
+  <si>
+    <t>2.544434e-07</t>
+  </si>
+  <si>
+    <t>3.055918e-07</t>
+  </si>
+  <si>
+    <t>2.787125e-07</t>
+  </si>
+  <si>
+    <t>2.901249e-07</t>
+  </si>
+  <si>
+    <t>2.511984e-07</t>
+  </si>
+  <si>
+    <t>2.305046e-07</t>
+  </si>
+  <si>
+    <t>2.369815e-07</t>
+  </si>
+  <si>
+    <t>0.006701705</t>
+  </si>
+  <si>
+    <t>0.006328398</t>
+  </si>
+  <si>
+    <t>0.006375596</t>
+  </si>
+  <si>
+    <t>0.006316235</t>
+  </si>
+  <si>
+    <t>0.006532866</t>
+  </si>
+  <si>
+    <t>0.006519705</t>
+  </si>
+  <si>
+    <t>0.006401758</t>
+  </si>
+  <si>
+    <t>0.006039913</t>
+  </si>
+  <si>
     <t>0.006707282</t>
   </si>
   <si>
+    <t>0.006591849</t>
+  </si>
+  <si>
+    <t>0.006384568</t>
+  </si>
+  <si>
+    <t>0.006069297</t>
+  </si>
+  <si>
+    <t>0.006130083</t>
+  </si>
+  <si>
+    <t>0.005950628</t>
+  </si>
+  <si>
+    <t>0.006792969</t>
+  </si>
+  <si>
+    <t>0.006482825</t>
+  </si>
+  <si>
+    <t>0.006656053</t>
+  </si>
+  <si>
+    <t>0.006389174</t>
+  </si>
+  <si>
+    <t>0.006725123</t>
+  </si>
+  <si>
+    <t>0.006824251</t>
+  </si>
+  <si>
+    <t>0.006439532</t>
+  </si>
+  <si>
+    <t>0.006464111</t>
+  </si>
+  <si>
     <t>0.006919174</t>
   </si>
   <si>
+    <t>0.006729574</t>
+  </si>
+  <si>
+    <t>0.00634805</t>
+  </si>
+  <si>
+    <t>0.006409498</t>
+  </si>
+  <si>
+    <t>0.006442896</t>
+  </si>
+  <si>
+    <t>0.006356055</t>
+  </si>
+  <si>
+    <t>0.005356431</t>
+  </si>
+  <si>
+    <t>0.004992432</t>
+  </si>
+  <si>
+    <t>0.005288172</t>
+  </si>
+  <si>
+    <t>0.004806489</t>
+  </si>
+  <si>
+    <t>0.005238293</t>
+  </si>
+  <si>
+    <t>0.00534096</t>
+  </si>
+  <si>
+    <t>0.005056953</t>
+  </si>
+  <si>
+    <t>0.004971176</t>
+  </si>
+  <si>
     <t>0.005455126</t>
   </si>
   <si>
-    <t>0.006384568</t>
-  </si>
-  <si>
-    <t>0.00634805</t>
+    <t>0.005282801</t>
   </si>
   <si>
     <t>0.00488411</t>
+  </si>
+  <si>
+    <t>0.00500029</t>
+  </si>
+  <si>
+    <t>0.005182757</t>
+  </si>
+  <si>
+    <t>0.005047702</t>
+  </si>
+  <si>
+    <t>1.34298e-10</t>
+  </si>
+  <si>
+    <t>1.255417e-10</t>
+  </si>
+  <si>
+    <t>1.348007e-10</t>
+  </si>
+  <si>
+    <t>1.280554e-10</t>
+  </si>
+  <si>
+    <t>1.306949e-10</t>
+  </si>
+  <si>
+    <t>1.288096e-10</t>
+  </si>
+  <si>
+    <t>1.276365e-10</t>
+  </si>
+  <si>
+    <t>1.28223e-10</t>
+  </si>
+  <si>
+    <t>1.27008e-10</t>
+  </si>
+  <si>
+    <t>1.329992e-10</t>
+  </si>
+  <si>
+    <t>1.316585e-10</t>
+  </si>
+  <si>
+    <t>1.336695e-10</t>
+  </si>
+  <si>
+    <t>1.311139e-10</t>
+  </si>
+  <si>
+    <t>1.296475e-10</t>
+  </si>
+  <si>
+    <t>0.004848104</t>
+  </si>
+  <si>
+    <t>0.004275683</t>
+  </si>
+  <si>
+    <t>0.004415526</t>
+  </si>
+  <si>
+    <t>0.00458204</t>
+  </si>
+  <si>
+    <t>0.004446676</t>
+  </si>
+  <si>
+    <t>0.003458655</t>
+  </si>
+  <si>
+    <t>0.004697751</t>
+  </si>
+  <si>
+    <t>0.00446655</t>
+  </si>
+  <si>
+    <t>0.00438493</t>
+  </si>
+  <si>
+    <t>0.003800664</t>
+  </si>
+  <si>
+    <t>0.004698496</t>
+  </si>
+  <si>
+    <t>0.004886194</t>
+  </si>
+  <si>
+    <t>0.004633154</t>
+  </si>
+  <si>
+    <t>0.004295274</t>
+  </si>
+  <si>
+    <t>1.333762e-10</t>
+  </si>
+  <si>
+    <t>1.283487e-10</t>
+  </si>
+  <si>
+    <t>1.271337e-10</t>
+  </si>
+  <si>
+    <t>1.252065e-10</t>
+  </si>
+  <si>
+    <t>1.257093e-10</t>
+  </si>
+  <si>
+    <t>1.353872e-10</t>
+  </si>
+  <si>
+    <t>1.222319e-10</t>
+  </si>
+  <si>
+    <t>1.327059e-10</t>
+  </si>
+  <si>
+    <t>1.300665e-10</t>
+  </si>
+  <si>
+    <t>1.291028e-10</t>
+  </si>
+  <si>
+    <t>1.283068e-10</t>
+  </si>
+  <si>
+    <t>1.277203e-10</t>
+  </si>
+  <si>
+    <t>1.300245e-10</t>
+  </si>
+  <si>
+    <t>1.334181e-10</t>
+  </si>
+  <si>
+    <t>0.004221569</t>
+  </si>
+  <si>
+    <t>0.002944735</t>
+  </si>
+  <si>
+    <t>0.004511872</t>
+  </si>
+  <si>
+    <t>0.00192262</t>
+  </si>
+  <si>
+    <t>0.003493654</t>
+  </si>
+  <si>
+    <t>0.004335667</t>
+  </si>
+  <si>
+    <t>0.00227457</t>
+  </si>
+  <si>
+    <t>0.002145134</t>
+  </si>
+  <si>
+    <t>0.005187034</t>
+  </si>
+  <si>
+    <t>0.003622514</t>
+  </si>
+  <si>
+    <t>0.004256894</t>
+  </si>
+  <si>
+    <t>0.004634428</t>
+  </si>
+  <si>
+    <t>0.004386544</t>
+  </si>
+  <si>
+    <t>0.004200758</t>
   </si>
 </sst>
 </file>
@@ -575,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,46 +2313,46 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>430</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -692,49 +2363,49 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>430</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -745,49 +2416,49 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>431</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,46 +2472,46 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="P5" t="s">
-        <v>59</v>
+        <v>431</v>
       </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,49 +2522,49 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>432</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,49 +2575,7522 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" t="s">
+        <v>234</v>
+      </c>
+      <c r="N7" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" t="s">
+        <v>235</v>
+      </c>
+      <c r="N8" t="s">
+        <v>333</v>
+      </c>
+      <c r="O8" t="s">
+        <v>428</v>
+      </c>
+      <c r="P8" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>235</v>
+      </c>
+      <c r="N9" t="s">
+        <v>333</v>
+      </c>
+      <c r="O9" t="s">
+        <v>428</v>
+      </c>
+      <c r="P9" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+      <c r="N10" t="s">
+        <v>334</v>
+      </c>
+      <c r="O10" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" t="s">
+        <v>334</v>
+      </c>
+      <c r="O11" t="s">
+        <v>428</v>
+      </c>
+      <c r="P11" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" t="s">
+        <v>335</v>
+      </c>
+      <c r="O12" t="s">
+        <v>428</v>
+      </c>
+      <c r="P12" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="s">
+        <v>237</v>
+      </c>
+      <c r="N13" t="s">
+        <v>335</v>
+      </c>
+      <c r="O13" t="s">
+        <v>428</v>
+      </c>
+      <c r="P13" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="s">
+        <v>238</v>
+      </c>
+      <c r="N14" t="s">
+        <v>336</v>
+      </c>
+      <c r="O14" t="s">
+        <v>428</v>
+      </c>
+      <c r="P14" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s">
+        <v>238</v>
+      </c>
+      <c r="N15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O15" t="s">
+        <v>428</v>
+      </c>
+      <c r="P15" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="s">
+        <v>239</v>
+      </c>
+      <c r="N16" t="s">
+        <v>337</v>
+      </c>
+      <c r="O16" t="s">
+        <v>428</v>
+      </c>
+      <c r="P16" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="s">
+        <v>240</v>
+      </c>
+      <c r="N17" t="s">
+        <v>338</v>
+      </c>
+      <c r="O17" t="s">
+        <v>428</v>
+      </c>
+      <c r="P17" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="s">
+        <v>241</v>
+      </c>
+      <c r="N18" t="s">
+        <v>339</v>
+      </c>
+      <c r="O18" t="s">
+        <v>428</v>
+      </c>
+      <c r="P18" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" t="s">
+        <v>242</v>
+      </c>
+      <c r="N19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O19" t="s">
+        <v>428</v>
+      </c>
+      <c r="P19" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" t="s">
+        <v>243</v>
+      </c>
+      <c r="N20" t="s">
+        <v>341</v>
+      </c>
+      <c r="O20" t="s">
+        <v>428</v>
+      </c>
+      <c r="P20" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" t="s">
+        <v>244</v>
+      </c>
+      <c r="N21" t="s">
+        <v>342</v>
+      </c>
+      <c r="O21" t="s">
+        <v>428</v>
+      </c>
+      <c r="P21" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" t="s">
+        <v>245</v>
+      </c>
+      <c r="N22" t="s">
+        <v>343</v>
+      </c>
+      <c r="O22" t="s">
+        <v>428</v>
+      </c>
+      <c r="P22" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" t="s">
+        <v>246</v>
+      </c>
+      <c r="N23" t="s">
+        <v>344</v>
+      </c>
+      <c r="O23" t="s">
+        <v>428</v>
+      </c>
+      <c r="P23" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" t="s">
+        <v>246</v>
+      </c>
+      <c r="N24" t="s">
+        <v>344</v>
+      </c>
+      <c r="O24" t="s">
+        <v>428</v>
+      </c>
+      <c r="P24" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" t="s">
+        <v>247</v>
+      </c>
+      <c r="N25" t="s">
+        <v>345</v>
+      </c>
+      <c r="O25" t="s">
+        <v>428</v>
+      </c>
+      <c r="P25" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" t="s">
+        <v>247</v>
+      </c>
+      <c r="N26" t="s">
+        <v>345</v>
+      </c>
+      <c r="O26" t="s">
+        <v>428</v>
+      </c>
+      <c r="P26" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" t="s">
+        <v>150</v>
+      </c>
+      <c r="M27" t="s">
+        <v>248</v>
+      </c>
+      <c r="N27" t="s">
+        <v>346</v>
+      </c>
+      <c r="O27" t="s">
+        <v>428</v>
+      </c>
+      <c r="P27" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+      <c r="K28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" t="s">
+        <v>248</v>
+      </c>
+      <c r="N28" t="s">
+        <v>346</v>
+      </c>
+      <c r="O28" t="s">
+        <v>428</v>
+      </c>
+      <c r="P28" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" t="s">
+        <v>249</v>
+      </c>
+      <c r="N29" t="s">
+        <v>347</v>
+      </c>
+      <c r="O29" t="s">
+        <v>428</v>
+      </c>
+      <c r="P29" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" t="s">
+        <v>151</v>
+      </c>
+      <c r="M30" t="s">
+        <v>249</v>
+      </c>
+      <c r="N30" t="s">
+        <v>347</v>
+      </c>
+      <c r="O30" t="s">
+        <v>428</v>
+      </c>
+      <c r="P30" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" t="s">
+        <v>152</v>
+      </c>
+      <c r="M31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O31" t="s">
+        <v>428</v>
+      </c>
+      <c r="P31" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" t="s">
+        <v>250</v>
+      </c>
+      <c r="N32" t="s">
+        <v>348</v>
+      </c>
+      <c r="O32" t="s">
+        <v>428</v>
+      </c>
+      <c r="P32" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M33" t="s">
+        <v>251</v>
+      </c>
+      <c r="N33" t="s">
+        <v>349</v>
+      </c>
+      <c r="O33" t="s">
+        <v>428</v>
+      </c>
+      <c r="P33" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" t="s">
+        <v>251</v>
+      </c>
+      <c r="N34" t="s">
+        <v>349</v>
+      </c>
+      <c r="O34" t="s">
+        <v>428</v>
+      </c>
+      <c r="P34" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" t="s">
+        <v>252</v>
+      </c>
+      <c r="N35" t="s">
+        <v>350</v>
+      </c>
+      <c r="O35" t="s">
+        <v>428</v>
+      </c>
+      <c r="P35" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="K7" t="s">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" t="s">
+        <v>126</v>
+      </c>
+      <c r="K36" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" t="s">
+        <v>252</v>
+      </c>
+      <c r="N36" t="s">
+        <v>350</v>
+      </c>
+      <c r="O36" t="s">
+        <v>428</v>
+      </c>
+      <c r="P36" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="L7" t="s">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" t="s">
+        <v>129</v>
+      </c>
+      <c r="J37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" t="s">
+        <v>155</v>
+      </c>
+      <c r="M37" t="s">
+        <v>253</v>
+      </c>
+      <c r="N37" t="s">
+        <v>351</v>
+      </c>
+      <c r="O37" t="s">
+        <v>428</v>
+      </c>
+      <c r="P37" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="I38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" t="s">
+        <v>156</v>
+      </c>
+      <c r="M38" t="s">
+        <v>254</v>
+      </c>
+      <c r="N38" t="s">
+        <v>352</v>
+      </c>
+      <c r="O38" t="s">
+        <v>428</v>
+      </c>
+      <c r="P38" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L39" t="s">
+        <v>157</v>
+      </c>
+      <c r="M39" t="s">
+        <v>255</v>
+      </c>
+      <c r="N39" t="s">
+        <v>353</v>
+      </c>
+      <c r="O39" t="s">
+        <v>428</v>
+      </c>
+      <c r="P39" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" t="s">
+        <v>158</v>
+      </c>
+      <c r="M40" t="s">
+        <v>256</v>
+      </c>
+      <c r="N40" t="s">
+        <v>354</v>
+      </c>
+      <c r="O40" t="s">
+        <v>428</v>
+      </c>
+      <c r="P40" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" t="s">
+        <v>127</v>
+      </c>
+      <c r="K41" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" t="s">
+        <v>159</v>
+      </c>
+      <c r="M41" t="s">
+        <v>257</v>
+      </c>
+      <c r="N41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P41" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s">
+        <v>133</v>
+      </c>
+      <c r="L42" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" t="s">
+        <v>258</v>
+      </c>
+      <c r="N42" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" t="s">
+        <v>428</v>
+      </c>
+      <c r="P42" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" t="s">
+        <v>161</v>
+      </c>
+      <c r="M43" t="s">
+        <v>259</v>
+      </c>
+      <c r="N43" t="s">
+        <v>357</v>
+      </c>
+      <c r="O43" t="s">
+        <v>428</v>
+      </c>
+      <c r="P43" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="M7" t="s">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
+      </c>
+      <c r="I44" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" t="s">
+        <v>126</v>
+      </c>
+      <c r="K44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44" t="s">
+        <v>162</v>
+      </c>
+      <c r="M44" t="s">
+        <v>260</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O44" t="s">
+        <v>428</v>
+      </c>
+      <c r="P44" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" t="s">
+        <v>162</v>
+      </c>
+      <c r="M45" t="s">
+        <v>260</v>
+      </c>
+      <c r="N45" t="s">
+        <v>358</v>
+      </c>
+      <c r="O45" t="s">
+        <v>428</v>
+      </c>
+      <c r="P45" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" t="s">
+        <v>132</v>
+      </c>
+      <c r="L46" t="s">
+        <v>163</v>
+      </c>
+      <c r="M46" t="s">
+        <v>261</v>
+      </c>
+      <c r="N46" t="s">
+        <v>359</v>
+      </c>
+      <c r="O46" t="s">
+        <v>428</v>
+      </c>
+      <c r="P46" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47" t="s">
+        <v>163</v>
+      </c>
+      <c r="M47" t="s">
+        <v>261</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>428</v>
+      </c>
+      <c r="P47" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" t="s">
+        <v>131</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="L48" t="s">
+        <v>164</v>
+      </c>
+      <c r="M48" t="s">
+        <v>262</v>
+      </c>
+      <c r="N48" t="s">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s">
+        <v>428</v>
+      </c>
+      <c r="P48" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" t="s">
+        <v>132</v>
+      </c>
+      <c r="L49" t="s">
+        <v>164</v>
+      </c>
+      <c r="M49" t="s">
+        <v>262</v>
+      </c>
+      <c r="N49" t="s">
+        <v>360</v>
+      </c>
+      <c r="O49" t="s">
+        <v>428</v>
+      </c>
+      <c r="P49" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J50" t="s">
+        <v>127</v>
+      </c>
+      <c r="K50" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" t="s">
+        <v>165</v>
+      </c>
+      <c r="M50" t="s">
+        <v>263</v>
+      </c>
+      <c r="N50" t="s">
+        <v>361</v>
+      </c>
+      <c r="O50" t="s">
+        <v>428</v>
+      </c>
+      <c r="P50" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51" t="s">
+        <v>127</v>
+      </c>
+      <c r="J51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" t="s">
+        <v>132</v>
+      </c>
+      <c r="L51" t="s">
+        <v>165</v>
+      </c>
+      <c r="M51" t="s">
+        <v>263</v>
+      </c>
+      <c r="N51" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" t="s">
+        <v>428</v>
+      </c>
+      <c r="P51" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H52" t="s">
+        <v>125</v>
+      </c>
+      <c r="I52" t="s">
+        <v>127</v>
+      </c>
+      <c r="J52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" t="s">
+        <v>166</v>
+      </c>
+      <c r="M52" t="s">
+        <v>264</v>
+      </c>
+      <c r="N52" t="s">
+        <v>362</v>
+      </c>
+      <c r="O52" t="s">
+        <v>428</v>
+      </c>
+      <c r="P52" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" t="s">
+        <v>127</v>
+      </c>
+      <c r="J53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" t="s">
+        <v>166</v>
+      </c>
+      <c r="M53" t="s">
+        <v>264</v>
+      </c>
+      <c r="N53" t="s">
+        <v>362</v>
+      </c>
+      <c r="O53" t="s">
+        <v>428</v>
+      </c>
+      <c r="P53" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" t="s">
+        <v>127</v>
+      </c>
+      <c r="J54" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" t="s">
+        <v>167</v>
+      </c>
+      <c r="M54" t="s">
+        <v>265</v>
+      </c>
+      <c r="N54" t="s">
+        <v>363</v>
+      </c>
+      <c r="O54" t="s">
+        <v>428</v>
+      </c>
+      <c r="P54" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L55" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s">
+        <v>265</v>
+      </c>
+      <c r="N55" t="s">
+        <v>363</v>
+      </c>
+      <c r="O55" t="s">
+        <v>428</v>
+      </c>
+      <c r="P55" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="O7" t="s">
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" t="s">
+        <v>128</v>
+      </c>
+      <c r="J56" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M56" t="s">
+        <v>266</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>428</v>
+      </c>
+      <c r="P56" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="P7" t="s">
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" t="s">
+        <v>128</v>
+      </c>
+      <c r="J57" t="s">
+        <v>126</v>
+      </c>
+      <c r="K57" t="s">
+        <v>132</v>
+      </c>
+      <c r="L57" t="s">
+        <v>168</v>
+      </c>
+      <c r="M57" t="s">
+        <v>266</v>
+      </c>
+      <c r="N57" t="s">
+        <v>364</v>
+      </c>
+      <c r="O57" t="s">
+        <v>428</v>
+      </c>
+      <c r="P57" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
         <v>61</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="H58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" t="s">
+        <v>128</v>
+      </c>
+      <c r="K58" t="s">
+        <v>132</v>
+      </c>
+      <c r="L58" t="s">
+        <v>169</v>
+      </c>
+      <c r="M58" t="s">
+        <v>267</v>
+      </c>
+      <c r="N58" t="s">
+        <v>365</v>
+      </c>
+      <c r="O58" t="s">
+        <v>428</v>
+      </c>
+      <c r="P58" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59" t="s">
+        <v>132</v>
+      </c>
+      <c r="L59" t="s">
+        <v>170</v>
+      </c>
+      <c r="M59" t="s">
+        <v>268</v>
+      </c>
+      <c r="N59" t="s">
+        <v>366</v>
+      </c>
+      <c r="O59" t="s">
+        <v>428</v>
+      </c>
+      <c r="P59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" t="s">
+        <v>171</v>
+      </c>
+      <c r="M60" t="s">
+        <v>269</v>
+      </c>
+      <c r="N60" t="s">
+        <v>367</v>
+      </c>
+      <c r="O60" t="s">
+        <v>428</v>
+      </c>
+      <c r="P60" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" t="s">
+        <v>125</v>
+      </c>
+      <c r="I61" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61" t="s">
+        <v>132</v>
+      </c>
+      <c r="L61" t="s">
+        <v>172</v>
+      </c>
+      <c r="M61" t="s">
+        <v>270</v>
+      </c>
+      <c r="N61" t="s">
+        <v>368</v>
+      </c>
+      <c r="O61" t="s">
+        <v>428</v>
+      </c>
+      <c r="P61" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" t="s">
+        <v>125</v>
+      </c>
+      <c r="I62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" t="s">
+        <v>173</v>
+      </c>
+      <c r="M62" t="s">
+        <v>271</v>
+      </c>
+      <c r="N62" t="s">
+        <v>369</v>
+      </c>
+      <c r="O62" t="s">
+        <v>428</v>
+      </c>
+      <c r="P62" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" t="s">
+        <v>174</v>
+      </c>
+      <c r="M63" t="s">
+        <v>272</v>
+      </c>
+      <c r="N63" t="s">
+        <v>370</v>
+      </c>
+      <c r="O63" t="s">
+        <v>428</v>
+      </c>
+      <c r="P63" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
         <v>67</v>
+      </c>
+      <c r="H64" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" t="s">
+        <v>131</v>
+      </c>
+      <c r="J64" t="s">
+        <v>129</v>
+      </c>
+      <c r="K64" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" t="s">
+        <v>175</v>
+      </c>
+      <c r="M64" t="s">
+        <v>273</v>
+      </c>
+      <c r="N64" t="s">
+        <v>371</v>
+      </c>
+      <c r="O64" t="s">
+        <v>428</v>
+      </c>
+      <c r="P64" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" t="s">
+        <v>126</v>
+      </c>
+      <c r="K65" t="s">
+        <v>133</v>
+      </c>
+      <c r="L65" t="s">
+        <v>176</v>
+      </c>
+      <c r="M65" t="s">
+        <v>274</v>
+      </c>
+      <c r="N65" t="s">
+        <v>372</v>
+      </c>
+      <c r="O65" t="s">
+        <v>428</v>
+      </c>
+      <c r="P65" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" t="s">
+        <v>126</v>
+      </c>
+      <c r="J66" t="s">
+        <v>126</v>
+      </c>
+      <c r="K66" t="s">
+        <v>133</v>
+      </c>
+      <c r="L66" t="s">
+        <v>176</v>
+      </c>
+      <c r="M66" t="s">
+        <v>274</v>
+      </c>
+      <c r="N66" t="s">
+        <v>372</v>
+      </c>
+      <c r="O66" t="s">
+        <v>428</v>
+      </c>
+      <c r="P66" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
+        <v>126</v>
+      </c>
+      <c r="J67" t="s">
+        <v>127</v>
+      </c>
+      <c r="K67" t="s">
+        <v>133</v>
+      </c>
+      <c r="L67" t="s">
+        <v>177</v>
+      </c>
+      <c r="M67" t="s">
+        <v>275</v>
+      </c>
+      <c r="N67" t="s">
+        <v>373</v>
+      </c>
+      <c r="O67" t="s">
+        <v>428</v>
+      </c>
+      <c r="P67" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" t="s">
+        <v>125</v>
+      </c>
+      <c r="I68" t="s">
+        <v>126</v>
+      </c>
+      <c r="J68" t="s">
+        <v>127</v>
+      </c>
+      <c r="K68" t="s">
+        <v>133</v>
+      </c>
+      <c r="L68" t="s">
+        <v>177</v>
+      </c>
+      <c r="M68" t="s">
+        <v>275</v>
+      </c>
+      <c r="N68" t="s">
+        <v>373</v>
+      </c>
+      <c r="O68" t="s">
+        <v>428</v>
+      </c>
+      <c r="P68" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>125</v>
+      </c>
+      <c r="I69" t="s">
+        <v>126</v>
+      </c>
+      <c r="J69" t="s">
+        <v>131</v>
+      </c>
+      <c r="K69" t="s">
+        <v>133</v>
+      </c>
+      <c r="L69" t="s">
+        <v>178</v>
+      </c>
+      <c r="M69" t="s">
+        <v>276</v>
+      </c>
+      <c r="N69" t="s">
+        <v>374</v>
+      </c>
+      <c r="O69" t="s">
+        <v>428</v>
+      </c>
+      <c r="P69" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" t="s">
+        <v>125</v>
+      </c>
+      <c r="I70" t="s">
+        <v>126</v>
+      </c>
+      <c r="J70" t="s">
+        <v>131</v>
+      </c>
+      <c r="K70" t="s">
+        <v>133</v>
+      </c>
+      <c r="L70" t="s">
+        <v>178</v>
+      </c>
+      <c r="M70" t="s">
+        <v>276</v>
+      </c>
+      <c r="N70" t="s">
+        <v>374</v>
+      </c>
+      <c r="O70" t="s">
+        <v>428</v>
+      </c>
+      <c r="P70" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" t="s">
+        <v>127</v>
+      </c>
+      <c r="J71" t="s">
+        <v>127</v>
+      </c>
+      <c r="K71" t="s">
+        <v>133</v>
+      </c>
+      <c r="L71" t="s">
+        <v>179</v>
+      </c>
+      <c r="M71" t="s">
+        <v>277</v>
+      </c>
+      <c r="N71" t="s">
+        <v>375</v>
+      </c>
+      <c r="O71" t="s">
+        <v>428</v>
+      </c>
+      <c r="P71" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s">
+        <v>125</v>
+      </c>
+      <c r="I72" t="s">
+        <v>127</v>
+      </c>
+      <c r="J72" t="s">
+        <v>127</v>
+      </c>
+      <c r="K72" t="s">
+        <v>133</v>
+      </c>
+      <c r="L72" t="s">
+        <v>179</v>
+      </c>
+      <c r="M72" t="s">
+        <v>277</v>
+      </c>
+      <c r="N72" t="s">
+        <v>375</v>
+      </c>
+      <c r="O72" t="s">
+        <v>428</v>
+      </c>
+      <c r="P72" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" t="s">
+        <v>125</v>
+      </c>
+      <c r="I73" t="s">
+        <v>127</v>
+      </c>
+      <c r="J73" t="s">
+        <v>129</v>
+      </c>
+      <c r="K73" t="s">
+        <v>133</v>
+      </c>
+      <c r="L73" t="s">
+        <v>180</v>
+      </c>
+      <c r="M73" t="s">
+        <v>278</v>
+      </c>
+      <c r="N73" t="s">
+        <v>376</v>
+      </c>
+      <c r="O73" t="s">
+        <v>428</v>
+      </c>
+      <c r="P73" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>125</v>
+      </c>
+      <c r="I74" t="s">
+        <v>127</v>
+      </c>
+      <c r="J74" t="s">
+        <v>129</v>
+      </c>
+      <c r="K74" t="s">
+        <v>133</v>
+      </c>
+      <c r="L74" t="s">
+        <v>180</v>
+      </c>
+      <c r="M74" t="s">
+        <v>278</v>
+      </c>
+      <c r="N74" t="s">
+        <v>376</v>
+      </c>
+      <c r="O74" t="s">
+        <v>428</v>
+      </c>
+      <c r="P74" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>125</v>
+      </c>
+      <c r="I75" t="s">
+        <v>127</v>
+      </c>
+      <c r="J75" t="s">
+        <v>130</v>
+      </c>
+      <c r="K75" t="s">
+        <v>133</v>
+      </c>
+      <c r="L75" t="s">
+        <v>181</v>
+      </c>
+      <c r="M75" t="s">
+        <v>279</v>
+      </c>
+      <c r="N75" t="s">
+        <v>377</v>
+      </c>
+      <c r="O75" t="s">
+        <v>428</v>
+      </c>
+      <c r="P75" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>125</v>
+      </c>
+      <c r="I76" t="s">
+        <v>127</v>
+      </c>
+      <c r="J76" t="s">
+        <v>130</v>
+      </c>
+      <c r="K76" t="s">
+        <v>133</v>
+      </c>
+      <c r="L76" t="s">
+        <v>181</v>
+      </c>
+      <c r="M76" t="s">
+        <v>279</v>
+      </c>
+      <c r="N76" t="s">
+        <v>377</v>
+      </c>
+      <c r="O76" t="s">
+        <v>428</v>
+      </c>
+      <c r="P76" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>125</v>
+      </c>
+      <c r="I77" t="s">
+        <v>128</v>
+      </c>
+      <c r="J77" t="s">
+        <v>126</v>
+      </c>
+      <c r="K77" t="s">
+        <v>133</v>
+      </c>
+      <c r="L77" t="s">
+        <v>182</v>
+      </c>
+      <c r="M77" t="s">
+        <v>280</v>
+      </c>
+      <c r="N77" t="s">
+        <v>378</v>
+      </c>
+      <c r="O77" t="s">
+        <v>428</v>
+      </c>
+      <c r="P77" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" t="s">
+        <v>128</v>
+      </c>
+      <c r="J78" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" t="s">
+        <v>133</v>
+      </c>
+      <c r="L78" t="s">
+        <v>182</v>
+      </c>
+      <c r="M78" t="s">
+        <v>280</v>
+      </c>
+      <c r="N78" t="s">
+        <v>378</v>
+      </c>
+      <c r="O78" t="s">
+        <v>428</v>
+      </c>
+      <c r="P78" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s">
+        <v>125</v>
+      </c>
+      <c r="I79" t="s">
+        <v>129</v>
+      </c>
+      <c r="J79" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" t="s">
+        <v>133</v>
+      </c>
+      <c r="L79" t="s">
+        <v>183</v>
+      </c>
+      <c r="M79" t="s">
+        <v>281</v>
+      </c>
+      <c r="N79" t="s">
+        <v>379</v>
+      </c>
+      <c r="O79" t="s">
+        <v>428</v>
+      </c>
+      <c r="P79" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" t="s">
+        <v>129</v>
+      </c>
+      <c r="J80" t="s">
+        <v>129</v>
+      </c>
+      <c r="K80" t="s">
+        <v>133</v>
+      </c>
+      <c r="L80" t="s">
+        <v>184</v>
+      </c>
+      <c r="M80" t="s">
+        <v>282</v>
+      </c>
+      <c r="N80" t="s">
+        <v>380</v>
+      </c>
+      <c r="O80" t="s">
+        <v>429</v>
+      </c>
+      <c r="P80" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s">
+        <v>125</v>
+      </c>
+      <c r="I81" t="s">
+        <v>129</v>
+      </c>
+      <c r="J81" t="s">
+        <v>130</v>
+      </c>
+      <c r="K81" t="s">
+        <v>133</v>
+      </c>
+      <c r="L81" t="s">
+        <v>185</v>
+      </c>
+      <c r="M81" t="s">
+        <v>283</v>
+      </c>
+      <c r="N81" t="s">
+        <v>381</v>
+      </c>
+      <c r="O81" t="s">
+        <v>428</v>
+      </c>
+      <c r="P81" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" t="s">
+        <v>130</v>
+      </c>
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+      <c r="K82" t="s">
+        <v>133</v>
+      </c>
+      <c r="L82" t="s">
+        <v>186</v>
+      </c>
+      <c r="M82" t="s">
+        <v>284</v>
+      </c>
+      <c r="N82" t="s">
+        <v>382</v>
+      </c>
+      <c r="O82" t="s">
+        <v>428</v>
+      </c>
+      <c r="P82" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s">
+        <v>125</v>
+      </c>
+      <c r="I83" t="s">
+        <v>130</v>
+      </c>
+      <c r="J83" t="s">
+        <v>127</v>
+      </c>
+      <c r="K83" t="s">
+        <v>133</v>
+      </c>
+      <c r="L83" t="s">
+        <v>187</v>
+      </c>
+      <c r="M83" t="s">
+        <v>285</v>
+      </c>
+      <c r="N83" t="s">
+        <v>383</v>
+      </c>
+      <c r="O83" t="s">
+        <v>428</v>
+      </c>
+      <c r="P83" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" t="s">
+        <v>130</v>
+      </c>
+      <c r="J84" t="s">
+        <v>130</v>
+      </c>
+      <c r="K84" t="s">
+        <v>133</v>
+      </c>
+      <c r="L84" t="s">
+        <v>188</v>
+      </c>
+      <c r="M84" t="s">
+        <v>286</v>
+      </c>
+      <c r="N84" t="s">
+        <v>384</v>
+      </c>
+      <c r="O84" t="s">
+        <v>428</v>
+      </c>
+      <c r="P84" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>81</v>
+      </c>
+      <c r="H85" t="s">
+        <v>125</v>
+      </c>
+      <c r="I85" t="s">
+        <v>131</v>
+      </c>
+      <c r="J85" t="s">
+        <v>129</v>
+      </c>
+      <c r="K85" t="s">
+        <v>133</v>
+      </c>
+      <c r="L85" t="s">
+        <v>189</v>
+      </c>
+      <c r="M85" t="s">
+        <v>287</v>
+      </c>
+      <c r="N85" t="s">
+        <v>385</v>
+      </c>
+      <c r="O85" t="s">
+        <v>428</v>
+      </c>
+      <c r="P85" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>82</v>
+      </c>
+      <c r="H86" t="s">
+        <v>125</v>
+      </c>
+      <c r="I86" t="s">
+        <v>126</v>
+      </c>
+      <c r="J86" t="s">
+        <v>126</v>
+      </c>
+      <c r="K86" t="s">
+        <v>133</v>
+      </c>
+      <c r="L86" t="s">
+        <v>190</v>
+      </c>
+      <c r="M86" t="s">
+        <v>288</v>
+      </c>
+      <c r="N86" t="s">
+        <v>386</v>
+      </c>
+      <c r="O86" t="s">
+        <v>428</v>
+      </c>
+      <c r="P86" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" t="s">
+        <v>125</v>
+      </c>
+      <c r="I87" t="s">
+        <v>126</v>
+      </c>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+      <c r="K87" t="s">
+        <v>133</v>
+      </c>
+      <c r="L87" t="s">
+        <v>190</v>
+      </c>
+      <c r="M87" t="s">
+        <v>288</v>
+      </c>
+      <c r="N87" t="s">
+        <v>386</v>
+      </c>
+      <c r="O87" t="s">
+        <v>428</v>
+      </c>
+      <c r="P87" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>83</v>
+      </c>
+      <c r="H88" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+      <c r="K88" t="s">
+        <v>133</v>
+      </c>
+      <c r="L88" t="s">
+        <v>191</v>
+      </c>
+      <c r="M88" t="s">
+        <v>289</v>
+      </c>
+      <c r="N88" t="s">
+        <v>387</v>
+      </c>
+      <c r="O88" t="s">
+        <v>428</v>
+      </c>
+      <c r="P88" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>83</v>
+      </c>
+      <c r="H89" t="s">
+        <v>125</v>
+      </c>
+      <c r="I89" t="s">
+        <v>126</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+      <c r="K89" t="s">
+        <v>133</v>
+      </c>
+      <c r="L89" t="s">
+        <v>191</v>
+      </c>
+      <c r="M89" t="s">
+        <v>289</v>
+      </c>
+      <c r="N89" t="s">
+        <v>387</v>
+      </c>
+      <c r="O89" t="s">
+        <v>428</v>
+      </c>
+      <c r="P89" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" t="s">
+        <v>125</v>
+      </c>
+      <c r="I90" t="s">
+        <v>126</v>
+      </c>
+      <c r="J90" t="s">
+        <v>131</v>
+      </c>
+      <c r="K90" t="s">
+        <v>133</v>
+      </c>
+      <c r="L90" t="s">
+        <v>192</v>
+      </c>
+      <c r="M90" t="s">
+        <v>290</v>
+      </c>
+      <c r="N90" t="s">
+        <v>388</v>
+      </c>
+      <c r="O90" t="s">
+        <v>428</v>
+      </c>
+      <c r="P90" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" t="s">
+        <v>125</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+      <c r="K91" t="s">
+        <v>133</v>
+      </c>
+      <c r="L91" t="s">
+        <v>192</v>
+      </c>
+      <c r="M91" t="s">
+        <v>290</v>
+      </c>
+      <c r="N91" t="s">
+        <v>388</v>
+      </c>
+      <c r="O91" t="s">
+        <v>428</v>
+      </c>
+      <c r="P91" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" t="s">
+        <v>125</v>
+      </c>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+      <c r="K92" t="s">
+        <v>133</v>
+      </c>
+      <c r="L92" t="s">
+        <v>193</v>
+      </c>
+      <c r="M92" t="s">
+        <v>291</v>
+      </c>
+      <c r="N92" t="s">
+        <v>389</v>
+      </c>
+      <c r="O92" t="s">
+        <v>428</v>
+      </c>
+      <c r="P92" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" t="s">
+        <v>125</v>
+      </c>
+      <c r="I93" t="s">
+        <v>127</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+      <c r="K93" t="s">
+        <v>133</v>
+      </c>
+      <c r="L93" t="s">
+        <v>193</v>
+      </c>
+      <c r="M93" t="s">
+        <v>291</v>
+      </c>
+      <c r="N93" t="s">
+        <v>389</v>
+      </c>
+      <c r="O93" t="s">
+        <v>428</v>
+      </c>
+      <c r="P93" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
+      <c r="H94" t="s">
+        <v>125</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+      <c r="K94" t="s">
+        <v>133</v>
+      </c>
+      <c r="L94" t="s">
+        <v>194</v>
+      </c>
+      <c r="M94" t="s">
+        <v>292</v>
+      </c>
+      <c r="N94" t="s">
+        <v>390</v>
+      </c>
+      <c r="O94" t="s">
+        <v>428</v>
+      </c>
+      <c r="P94" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s">
+        <v>125</v>
+      </c>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+      <c r="K95" t="s">
+        <v>133</v>
+      </c>
+      <c r="L95" t="s">
+        <v>194</v>
+      </c>
+      <c r="M95" t="s">
+        <v>292</v>
+      </c>
+      <c r="N95" t="s">
+        <v>390</v>
+      </c>
+      <c r="O95" t="s">
+        <v>428</v>
+      </c>
+      <c r="P95" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>87</v>
+      </c>
+      <c r="H96" t="s">
+        <v>125</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+      <c r="K96" t="s">
+        <v>133</v>
+      </c>
+      <c r="L96" t="s">
+        <v>195</v>
+      </c>
+      <c r="M96" t="s">
+        <v>293</v>
+      </c>
+      <c r="N96" t="s">
+        <v>391</v>
+      </c>
+      <c r="O96" t="s">
+        <v>428</v>
+      </c>
+      <c r="P96" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>87</v>
+      </c>
+      <c r="H97" t="s">
+        <v>125</v>
+      </c>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+      <c r="K97" t="s">
+        <v>133</v>
+      </c>
+      <c r="L97" t="s">
+        <v>195</v>
+      </c>
+      <c r="M97" t="s">
+        <v>293</v>
+      </c>
+      <c r="N97" t="s">
+        <v>391</v>
+      </c>
+      <c r="O97" t="s">
+        <v>428</v>
+      </c>
+      <c r="P97" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" t="s">
+        <v>125</v>
+      </c>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+      <c r="K98" t="s">
+        <v>133</v>
+      </c>
+      <c r="L98" t="s">
+        <v>196</v>
+      </c>
+      <c r="M98" t="s">
+        <v>294</v>
+      </c>
+      <c r="N98" t="s">
+        <v>392</v>
+      </c>
+      <c r="O98" t="s">
+        <v>428</v>
+      </c>
+      <c r="P98" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" t="s">
+        <v>125</v>
+      </c>
+      <c r="I99" t="s">
+        <v>128</v>
+      </c>
+      <c r="J99" t="s">
+        <v>126</v>
+      </c>
+      <c r="K99" t="s">
+        <v>133</v>
+      </c>
+      <c r="L99" t="s">
+        <v>196</v>
+      </c>
+      <c r="M99" t="s">
+        <v>294</v>
+      </c>
+      <c r="N99" t="s">
+        <v>392</v>
+      </c>
+      <c r="O99" t="s">
+        <v>428</v>
+      </c>
+      <c r="P99" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>89</v>
+      </c>
+      <c r="H100" t="s">
+        <v>125</v>
+      </c>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+      <c r="K100" t="s">
+        <v>133</v>
+      </c>
+      <c r="L100" t="s">
+        <v>197</v>
+      </c>
+      <c r="M100" t="s">
+        <v>295</v>
+      </c>
+      <c r="N100" t="s">
+        <v>393</v>
+      </c>
+      <c r="O100" t="s">
+        <v>428</v>
+      </c>
+      <c r="P100" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>90</v>
+      </c>
+      <c r="H101" t="s">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+      <c r="K101" t="s">
+        <v>133</v>
+      </c>
+      <c r="L101" t="s">
+        <v>198</v>
+      </c>
+      <c r="M101" t="s">
+        <v>296</v>
+      </c>
+      <c r="N101" t="s">
+        <v>394</v>
+      </c>
+      <c r="O101" t="s">
+        <v>428</v>
+      </c>
+      <c r="P101" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" t="s">
+        <v>125</v>
+      </c>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+      <c r="K102" t="s">
+        <v>133</v>
+      </c>
+      <c r="L102" t="s">
+        <v>199</v>
+      </c>
+      <c r="M102" t="s">
+        <v>297</v>
+      </c>
+      <c r="N102" t="s">
+        <v>395</v>
+      </c>
+      <c r="O102" t="s">
+        <v>428</v>
+      </c>
+      <c r="P102" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>92</v>
+      </c>
+      <c r="H103" t="s">
+        <v>125</v>
+      </c>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+      <c r="J103" t="s">
+        <v>126</v>
+      </c>
+      <c r="K103" t="s">
+        <v>133</v>
+      </c>
+      <c r="L103" t="s">
+        <v>200</v>
+      </c>
+      <c r="M103" t="s">
+        <v>298</v>
+      </c>
+      <c r="N103" t="s">
+        <v>396</v>
+      </c>
+      <c r="O103" t="s">
+        <v>428</v>
+      </c>
+      <c r="P103" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>93</v>
+      </c>
+      <c r="H104" t="s">
+        <v>125</v>
+      </c>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+      <c r="J104" t="s">
+        <v>127</v>
+      </c>
+      <c r="K104" t="s">
+        <v>133</v>
+      </c>
+      <c r="L104" t="s">
+        <v>201</v>
+      </c>
+      <c r="M104" t="s">
+        <v>299</v>
+      </c>
+      <c r="N104" t="s">
+        <v>397</v>
+      </c>
+      <c r="O104" t="s">
+        <v>428</v>
+      </c>
+      <c r="P104" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>94</v>
+      </c>
+      <c r="H105" t="s">
+        <v>125</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+      <c r="J105" t="s">
+        <v>130</v>
+      </c>
+      <c r="K105" t="s">
+        <v>133</v>
+      </c>
+      <c r="L105" t="s">
+        <v>202</v>
+      </c>
+      <c r="M105" t="s">
+        <v>300</v>
+      </c>
+      <c r="N105" t="s">
+        <v>398</v>
+      </c>
+      <c r="O105" t="s">
+        <v>428</v>
+      </c>
+      <c r="P105" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>95</v>
+      </c>
+      <c r="H106" t="s">
+        <v>125</v>
+      </c>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+      <c r="J106" t="s">
+        <v>129</v>
+      </c>
+      <c r="K106" t="s">
+        <v>133</v>
+      </c>
+      <c r="L106" t="s">
+        <v>203</v>
+      </c>
+      <c r="M106" t="s">
+        <v>301</v>
+      </c>
+      <c r="N106" t="s">
+        <v>399</v>
+      </c>
+      <c r="O106" t="s">
+        <v>428</v>
+      </c>
+      <c r="P106" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>96</v>
+      </c>
+      <c r="H107" t="s">
+        <v>125</v>
+      </c>
+      <c r="I107" t="s">
+        <v>126</v>
+      </c>
+      <c r="J107" t="s">
+        <v>126</v>
+      </c>
+      <c r="K107" t="s">
+        <v>133</v>
+      </c>
+      <c r="L107" t="s">
+        <v>204</v>
+      </c>
+      <c r="M107" t="s">
+        <v>302</v>
+      </c>
+      <c r="N107" t="s">
+        <v>400</v>
+      </c>
+      <c r="O107" t="s">
+        <v>428</v>
+      </c>
+      <c r="P107" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>96</v>
+      </c>
+      <c r="H108" t="s">
+        <v>125</v>
+      </c>
+      <c r="I108" t="s">
+        <v>126</v>
+      </c>
+      <c r="J108" t="s">
+        <v>126</v>
+      </c>
+      <c r="K108" t="s">
+        <v>133</v>
+      </c>
+      <c r="L108" t="s">
+        <v>204</v>
+      </c>
+      <c r="M108" t="s">
+        <v>302</v>
+      </c>
+      <c r="N108" t="s">
+        <v>400</v>
+      </c>
+      <c r="O108" t="s">
+        <v>428</v>
+      </c>
+      <c r="P108" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>97</v>
+      </c>
+      <c r="H109" t="s">
+        <v>125</v>
+      </c>
+      <c r="I109" t="s">
+        <v>126</v>
+      </c>
+      <c r="J109" t="s">
+        <v>127</v>
+      </c>
+      <c r="K109" t="s">
+        <v>133</v>
+      </c>
+      <c r="L109" t="s">
+        <v>205</v>
+      </c>
+      <c r="M109" t="s">
+        <v>303</v>
+      </c>
+      <c r="N109" t="s">
+        <v>401</v>
+      </c>
+      <c r="O109" t="s">
+        <v>428</v>
+      </c>
+      <c r="P109" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>97</v>
+      </c>
+      <c r="H110" t="s">
+        <v>125</v>
+      </c>
+      <c r="I110" t="s">
+        <v>126</v>
+      </c>
+      <c r="J110" t="s">
+        <v>127</v>
+      </c>
+      <c r="K110" t="s">
+        <v>133</v>
+      </c>
+      <c r="L110" t="s">
+        <v>205</v>
+      </c>
+      <c r="M110" t="s">
+        <v>303</v>
+      </c>
+      <c r="N110" t="s">
+        <v>401</v>
+      </c>
+      <c r="O110" t="s">
+        <v>428</v>
+      </c>
+      <c r="P110" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111" t="s">
+        <v>125</v>
+      </c>
+      <c r="I111" t="s">
+        <v>126</v>
+      </c>
+      <c r="J111" t="s">
+        <v>131</v>
+      </c>
+      <c r="K111" t="s">
+        <v>133</v>
+      </c>
+      <c r="L111" t="s">
+        <v>206</v>
+      </c>
+      <c r="M111" t="s">
+        <v>304</v>
+      </c>
+      <c r="N111" t="s">
+        <v>402</v>
+      </c>
+      <c r="O111" t="s">
+        <v>429</v>
+      </c>
+      <c r="P111" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>98</v>
+      </c>
+      <c r="H112" t="s">
+        <v>125</v>
+      </c>
+      <c r="I112" t="s">
+        <v>126</v>
+      </c>
+      <c r="J112" t="s">
+        <v>131</v>
+      </c>
+      <c r="K112" t="s">
+        <v>133</v>
+      </c>
+      <c r="L112" t="s">
+        <v>206</v>
+      </c>
+      <c r="M112" t="s">
+        <v>304</v>
+      </c>
+      <c r="N112" t="s">
+        <v>402</v>
+      </c>
+      <c r="O112" t="s">
+        <v>429</v>
+      </c>
+      <c r="P112" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>99</v>
+      </c>
+      <c r="H113" t="s">
+        <v>125</v>
+      </c>
+      <c r="I113" t="s">
+        <v>127</v>
+      </c>
+      <c r="J113" t="s">
+        <v>127</v>
+      </c>
+      <c r="K113" t="s">
+        <v>133</v>
+      </c>
+      <c r="L113" t="s">
+        <v>207</v>
+      </c>
+      <c r="M113" t="s">
+        <v>305</v>
+      </c>
+      <c r="N113" t="s">
+        <v>403</v>
+      </c>
+      <c r="O113" t="s">
+        <v>428</v>
+      </c>
+      <c r="P113" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>99</v>
+      </c>
+      <c r="H114" t="s">
+        <v>125</v>
+      </c>
+      <c r="I114" t="s">
+        <v>127</v>
+      </c>
+      <c r="J114" t="s">
+        <v>127</v>
+      </c>
+      <c r="K114" t="s">
+        <v>133</v>
+      </c>
+      <c r="L114" t="s">
+        <v>207</v>
+      </c>
+      <c r="M114" t="s">
+        <v>305</v>
+      </c>
+      <c r="N114" t="s">
+        <v>403</v>
+      </c>
+      <c r="O114" t="s">
+        <v>428</v>
+      </c>
+      <c r="P114" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" t="s">
+        <v>125</v>
+      </c>
+      <c r="I115" t="s">
+        <v>127</v>
+      </c>
+      <c r="J115" t="s">
+        <v>129</v>
+      </c>
+      <c r="K115" t="s">
+        <v>133</v>
+      </c>
+      <c r="L115" t="s">
+        <v>208</v>
+      </c>
+      <c r="M115" t="s">
+        <v>306</v>
+      </c>
+      <c r="N115" t="s">
+        <v>404</v>
+      </c>
+      <c r="O115" t="s">
+        <v>428</v>
+      </c>
+      <c r="P115" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
+        <v>125</v>
+      </c>
+      <c r="I116" t="s">
+        <v>127</v>
+      </c>
+      <c r="J116" t="s">
+        <v>129</v>
+      </c>
+      <c r="K116" t="s">
+        <v>133</v>
+      </c>
+      <c r="L116" t="s">
+        <v>208</v>
+      </c>
+      <c r="M116" t="s">
+        <v>306</v>
+      </c>
+      <c r="N116" t="s">
+        <v>404</v>
+      </c>
+      <c r="O116" t="s">
+        <v>428</v>
+      </c>
+      <c r="P116" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>101</v>
+      </c>
+      <c r="H117" t="s">
+        <v>125</v>
+      </c>
+      <c r="I117" t="s">
+        <v>127</v>
+      </c>
+      <c r="J117" t="s">
+        <v>130</v>
+      </c>
+      <c r="K117" t="s">
+        <v>133</v>
+      </c>
+      <c r="L117" t="s">
+        <v>209</v>
+      </c>
+      <c r="M117" t="s">
+        <v>307</v>
+      </c>
+      <c r="N117" t="s">
+        <v>405</v>
+      </c>
+      <c r="O117" t="s">
+        <v>428</v>
+      </c>
+      <c r="P117" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" t="s">
+        <v>125</v>
+      </c>
+      <c r="I118" t="s">
+        <v>127</v>
+      </c>
+      <c r="J118" t="s">
+        <v>130</v>
+      </c>
+      <c r="K118" t="s">
+        <v>133</v>
+      </c>
+      <c r="L118" t="s">
+        <v>209</v>
+      </c>
+      <c r="M118" t="s">
+        <v>307</v>
+      </c>
+      <c r="N118" t="s">
+        <v>405</v>
+      </c>
+      <c r="O118" t="s">
+        <v>428</v>
+      </c>
+      <c r="P118" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>102</v>
+      </c>
+      <c r="H119" t="s">
+        <v>125</v>
+      </c>
+      <c r="I119" t="s">
+        <v>128</v>
+      </c>
+      <c r="J119" t="s">
+        <v>126</v>
+      </c>
+      <c r="K119" t="s">
+        <v>133</v>
+      </c>
+      <c r="L119" t="s">
+        <v>210</v>
+      </c>
+      <c r="M119" t="s">
+        <v>308</v>
+      </c>
+      <c r="N119" t="s">
+        <v>406</v>
+      </c>
+      <c r="O119" t="s">
+        <v>428</v>
+      </c>
+      <c r="P119" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>102</v>
+      </c>
+      <c r="H120" t="s">
+        <v>125</v>
+      </c>
+      <c r="I120" t="s">
+        <v>128</v>
+      </c>
+      <c r="J120" t="s">
+        <v>126</v>
+      </c>
+      <c r="K120" t="s">
+        <v>133</v>
+      </c>
+      <c r="L120" t="s">
+        <v>210</v>
+      </c>
+      <c r="M120" t="s">
+        <v>308</v>
+      </c>
+      <c r="N120" t="s">
+        <v>406</v>
+      </c>
+      <c r="O120" t="s">
+        <v>428</v>
+      </c>
+      <c r="P120" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>103</v>
+      </c>
+      <c r="H121" t="s">
+        <v>125</v>
+      </c>
+      <c r="I121" t="s">
+        <v>129</v>
+      </c>
+      <c r="J121" t="s">
+        <v>128</v>
+      </c>
+      <c r="K121" t="s">
+        <v>133</v>
+      </c>
+      <c r="L121" t="s">
+        <v>211</v>
+      </c>
+      <c r="M121" t="s">
+        <v>309</v>
+      </c>
+      <c r="N121" t="s">
+        <v>407</v>
+      </c>
+      <c r="O121" t="s">
+        <v>429</v>
+      </c>
+      <c r="P121" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>104</v>
+      </c>
+      <c r="H122" t="s">
+        <v>125</v>
+      </c>
+      <c r="I122" t="s">
+        <v>129</v>
+      </c>
+      <c r="J122" t="s">
+        <v>129</v>
+      </c>
+      <c r="K122" t="s">
+        <v>133</v>
+      </c>
+      <c r="L122" t="s">
+        <v>212</v>
+      </c>
+      <c r="M122" t="s">
+        <v>310</v>
+      </c>
+      <c r="N122" t="s">
+        <v>408</v>
+      </c>
+      <c r="O122" t="s">
+        <v>428</v>
+      </c>
+      <c r="P122" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>105</v>
+      </c>
+      <c r="H123" t="s">
+        <v>125</v>
+      </c>
+      <c r="I123" t="s">
+        <v>129</v>
+      </c>
+      <c r="J123" t="s">
+        <v>130</v>
+      </c>
+      <c r="K123" t="s">
+        <v>133</v>
+      </c>
+      <c r="L123" t="s">
+        <v>213</v>
+      </c>
+      <c r="M123" t="s">
+        <v>311</v>
+      </c>
+      <c r="N123" t="s">
+        <v>409</v>
+      </c>
+      <c r="O123" t="s">
+        <v>428</v>
+      </c>
+      <c r="P123" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>106</v>
+      </c>
+      <c r="H124" t="s">
+        <v>125</v>
+      </c>
+      <c r="I124" t="s">
+        <v>130</v>
+      </c>
+      <c r="J124" t="s">
+        <v>126</v>
+      </c>
+      <c r="K124" t="s">
+        <v>133</v>
+      </c>
+      <c r="L124" t="s">
+        <v>214</v>
+      </c>
+      <c r="M124" t="s">
+        <v>312</v>
+      </c>
+      <c r="N124" t="s">
+        <v>410</v>
+      </c>
+      <c r="O124" t="s">
+        <v>428</v>
+      </c>
+      <c r="P124" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>107</v>
+      </c>
+      <c r="H125" t="s">
+        <v>125</v>
+      </c>
+      <c r="I125" t="s">
+        <v>130</v>
+      </c>
+      <c r="J125" t="s">
+        <v>127</v>
+      </c>
+      <c r="K125" t="s">
+        <v>133</v>
+      </c>
+      <c r="L125" t="s">
+        <v>215</v>
+      </c>
+      <c r="M125" t="s">
+        <v>313</v>
+      </c>
+      <c r="N125" t="s">
+        <v>411</v>
+      </c>
+      <c r="O125" t="s">
+        <v>428</v>
+      </c>
+      <c r="P125" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>108</v>
+      </c>
+      <c r="H126" t="s">
+        <v>125</v>
+      </c>
+      <c r="I126" t="s">
+        <v>130</v>
+      </c>
+      <c r="J126" t="s">
+        <v>130</v>
+      </c>
+      <c r="K126" t="s">
+        <v>133</v>
+      </c>
+      <c r="L126" t="s">
+        <v>216</v>
+      </c>
+      <c r="M126" t="s">
+        <v>314</v>
+      </c>
+      <c r="N126" t="s">
+        <v>412</v>
+      </c>
+      <c r="O126" t="s">
+        <v>428</v>
+      </c>
+      <c r="P126" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+      <c r="G127" t="s">
+        <v>109</v>
+      </c>
+      <c r="H127" t="s">
+        <v>125</v>
+      </c>
+      <c r="I127" t="s">
+        <v>131</v>
+      </c>
+      <c r="J127" t="s">
+        <v>129</v>
+      </c>
+      <c r="K127" t="s">
+        <v>133</v>
+      </c>
+      <c r="L127" t="s">
+        <v>217</v>
+      </c>
+      <c r="M127" t="s">
+        <v>315</v>
+      </c>
+      <c r="N127" t="s">
+        <v>413</v>
+      </c>
+      <c r="O127" t="s">
+        <v>428</v>
+      </c>
+      <c r="P127" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s">
+        <v>110</v>
+      </c>
+      <c r="H128" t="s">
+        <v>125</v>
+      </c>
+      <c r="I128" t="s">
+        <v>126</v>
+      </c>
+      <c r="J128" t="s">
+        <v>126</v>
+      </c>
+      <c r="K128" t="s">
+        <v>133</v>
+      </c>
+      <c r="L128" t="s">
+        <v>218</v>
+      </c>
+      <c r="M128" t="s">
+        <v>316</v>
+      </c>
+      <c r="N128" t="s">
+        <v>414</v>
+      </c>
+      <c r="O128" t="s">
+        <v>428</v>
+      </c>
+      <c r="P128" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129" t="s">
+        <v>110</v>
+      </c>
+      <c r="H129" t="s">
+        <v>125</v>
+      </c>
+      <c r="I129" t="s">
+        <v>126</v>
+      </c>
+      <c r="J129" t="s">
+        <v>126</v>
+      </c>
+      <c r="K129" t="s">
+        <v>133</v>
+      </c>
+      <c r="L129" t="s">
+        <v>218</v>
+      </c>
+      <c r="M129" t="s">
+        <v>316</v>
+      </c>
+      <c r="N129" t="s">
+        <v>414</v>
+      </c>
+      <c r="O129" t="s">
+        <v>428</v>
+      </c>
+      <c r="P129" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" t="s">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s">
+        <v>111</v>
+      </c>
+      <c r="H130" t="s">
+        <v>125</v>
+      </c>
+      <c r="I130" t="s">
+        <v>126</v>
+      </c>
+      <c r="J130" t="s">
+        <v>127</v>
+      </c>
+      <c r="K130" t="s">
+        <v>133</v>
+      </c>
+      <c r="L130" t="s">
+        <v>219</v>
+      </c>
+      <c r="M130" t="s">
+        <v>317</v>
+      </c>
+      <c r="N130" t="s">
+        <v>415</v>
+      </c>
+      <c r="O130" t="s">
+        <v>428</v>
+      </c>
+      <c r="P130" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" t="s">
+        <v>25</v>
+      </c>
+      <c r="G131" t="s">
+        <v>111</v>
+      </c>
+      <c r="H131" t="s">
+        <v>125</v>
+      </c>
+      <c r="I131" t="s">
+        <v>126</v>
+      </c>
+      <c r="J131" t="s">
+        <v>127</v>
+      </c>
+      <c r="K131" t="s">
+        <v>133</v>
+      </c>
+      <c r="L131" t="s">
+        <v>219</v>
+      </c>
+      <c r="M131" t="s">
+        <v>317</v>
+      </c>
+      <c r="N131" t="s">
+        <v>415</v>
+      </c>
+      <c r="O131" t="s">
+        <v>428</v>
+      </c>
+      <c r="P131" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s">
+        <v>112</v>
+      </c>
+      <c r="H132" t="s">
+        <v>125</v>
+      </c>
+      <c r="I132" t="s">
+        <v>126</v>
+      </c>
+      <c r="J132" t="s">
+        <v>131</v>
+      </c>
+      <c r="K132" t="s">
+        <v>133</v>
+      </c>
+      <c r="L132" t="s">
+        <v>220</v>
+      </c>
+      <c r="M132" t="s">
+        <v>318</v>
+      </c>
+      <c r="N132" t="s">
+        <v>416</v>
+      </c>
+      <c r="O132" t="s">
+        <v>428</v>
+      </c>
+      <c r="P132" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" t="s">
+        <v>25</v>
+      </c>
+      <c r="G133" t="s">
+        <v>112</v>
+      </c>
+      <c r="H133" t="s">
+        <v>125</v>
+      </c>
+      <c r="I133" t="s">
+        <v>126</v>
+      </c>
+      <c r="J133" t="s">
+        <v>131</v>
+      </c>
+      <c r="K133" t="s">
+        <v>133</v>
+      </c>
+      <c r="L133" t="s">
+        <v>220</v>
+      </c>
+      <c r="M133" t="s">
+        <v>318</v>
+      </c>
+      <c r="N133" t="s">
+        <v>416</v>
+      </c>
+      <c r="O133" t="s">
+        <v>428</v>
+      </c>
+      <c r="P133" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s">
+        <v>113</v>
+      </c>
+      <c r="H134" t="s">
+        <v>125</v>
+      </c>
+      <c r="I134" t="s">
+        <v>127</v>
+      </c>
+      <c r="J134" t="s">
+        <v>127</v>
+      </c>
+      <c r="K134" t="s">
+        <v>133</v>
+      </c>
+      <c r="L134" t="s">
+        <v>221</v>
+      </c>
+      <c r="M134" t="s">
+        <v>319</v>
+      </c>
+      <c r="N134" t="s">
+        <v>417</v>
+      </c>
+      <c r="O134" t="s">
+        <v>428</v>
+      </c>
+      <c r="P134" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" t="s">
+        <v>113</v>
+      </c>
+      <c r="H135" t="s">
+        <v>125</v>
+      </c>
+      <c r="I135" t="s">
+        <v>127</v>
+      </c>
+      <c r="J135" t="s">
+        <v>127</v>
+      </c>
+      <c r="K135" t="s">
+        <v>133</v>
+      </c>
+      <c r="L135" t="s">
+        <v>221</v>
+      </c>
+      <c r="M135" t="s">
+        <v>319</v>
+      </c>
+      <c r="N135" t="s">
+        <v>417</v>
+      </c>
+      <c r="O135" t="s">
+        <v>428</v>
+      </c>
+      <c r="P135" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" t="s">
+        <v>23</v>
+      </c>
+      <c r="F136" t="s">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s">
+        <v>114</v>
+      </c>
+      <c r="H136" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" t="s">
+        <v>127</v>
+      </c>
+      <c r="J136" t="s">
+        <v>129</v>
+      </c>
+      <c r="K136" t="s">
+        <v>133</v>
+      </c>
+      <c r="L136" t="s">
+        <v>222</v>
+      </c>
+      <c r="M136" t="s">
+        <v>320</v>
+      </c>
+      <c r="N136" t="s">
+        <v>418</v>
+      </c>
+      <c r="O136" t="s">
+        <v>428</v>
+      </c>
+      <c r="P136" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" t="s">
+        <v>23</v>
+      </c>
+      <c r="F137" t="s">
+        <v>25</v>
+      </c>
+      <c r="G137" t="s">
+        <v>114</v>
+      </c>
+      <c r="H137" t="s">
+        <v>125</v>
+      </c>
+      <c r="I137" t="s">
+        <v>127</v>
+      </c>
+      <c r="J137" t="s">
+        <v>129</v>
+      </c>
+      <c r="K137" t="s">
+        <v>133</v>
+      </c>
+      <c r="L137" t="s">
+        <v>222</v>
+      </c>
+      <c r="M137" t="s">
+        <v>320</v>
+      </c>
+      <c r="N137" t="s">
+        <v>418</v>
+      </c>
+      <c r="O137" t="s">
+        <v>428</v>
+      </c>
+      <c r="P137" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" t="s">
+        <v>25</v>
+      </c>
+      <c r="G138" t="s">
+        <v>115</v>
+      </c>
+      <c r="H138" t="s">
+        <v>125</v>
+      </c>
+      <c r="I138" t="s">
+        <v>127</v>
+      </c>
+      <c r="J138" t="s">
+        <v>130</v>
+      </c>
+      <c r="K138" t="s">
+        <v>133</v>
+      </c>
+      <c r="L138" t="s">
+        <v>223</v>
+      </c>
+      <c r="M138" t="s">
+        <v>321</v>
+      </c>
+      <c r="N138" t="s">
+        <v>419</v>
+      </c>
+      <c r="O138" t="s">
+        <v>428</v>
+      </c>
+      <c r="P138" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139" t="s">
+        <v>23</v>
+      </c>
+      <c r="F139" t="s">
+        <v>25</v>
+      </c>
+      <c r="G139" t="s">
+        <v>115</v>
+      </c>
+      <c r="H139" t="s">
+        <v>125</v>
+      </c>
+      <c r="I139" t="s">
+        <v>127</v>
+      </c>
+      <c r="J139" t="s">
+        <v>130</v>
+      </c>
+      <c r="K139" t="s">
+        <v>133</v>
+      </c>
+      <c r="L139" t="s">
+        <v>223</v>
+      </c>
+      <c r="M139" t="s">
+        <v>321</v>
+      </c>
+      <c r="N139" t="s">
+        <v>419</v>
+      </c>
+      <c r="O139" t="s">
+        <v>428</v>
+      </c>
+      <c r="P139" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" t="s">
+        <v>25</v>
+      </c>
+      <c r="G140" t="s">
+        <v>116</v>
+      </c>
+      <c r="H140" t="s">
+        <v>125</v>
+      </c>
+      <c r="I140" t="s">
+        <v>128</v>
+      </c>
+      <c r="J140" t="s">
+        <v>126</v>
+      </c>
+      <c r="K140" t="s">
+        <v>133</v>
+      </c>
+      <c r="L140" t="s">
+        <v>224</v>
+      </c>
+      <c r="M140" t="s">
+        <v>322</v>
+      </c>
+      <c r="N140" t="s">
+        <v>420</v>
+      </c>
+      <c r="O140" t="s">
+        <v>428</v>
+      </c>
+      <c r="P140" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141" t="s">
+        <v>23</v>
+      </c>
+      <c r="F141" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" t="s">
+        <v>116</v>
+      </c>
+      <c r="H141" t="s">
+        <v>125</v>
+      </c>
+      <c r="I141" t="s">
+        <v>128</v>
+      </c>
+      <c r="J141" t="s">
+        <v>126</v>
+      </c>
+      <c r="K141" t="s">
+        <v>133</v>
+      </c>
+      <c r="L141" t="s">
+        <v>224</v>
+      </c>
+      <c r="M141" t="s">
+        <v>322</v>
+      </c>
+      <c r="N141" t="s">
+        <v>420</v>
+      </c>
+      <c r="O141" t="s">
+        <v>428</v>
+      </c>
+      <c r="P141" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" t="s">
+        <v>25</v>
+      </c>
+      <c r="G142" t="s">
+        <v>117</v>
+      </c>
+      <c r="H142" t="s">
+        <v>125</v>
+      </c>
+      <c r="I142" t="s">
+        <v>129</v>
+      </c>
+      <c r="J142" t="s">
+        <v>128</v>
+      </c>
+      <c r="K142" t="s">
+        <v>133</v>
+      </c>
+      <c r="L142" t="s">
+        <v>225</v>
+      </c>
+      <c r="M142" t="s">
+        <v>323</v>
+      </c>
+      <c r="N142" t="s">
+        <v>421</v>
+      </c>
+      <c r="O142" t="s">
+        <v>428</v>
+      </c>
+      <c r="P142" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" t="s">
+        <v>25</v>
+      </c>
+      <c r="G143" t="s">
+        <v>118</v>
+      </c>
+      <c r="H143" t="s">
+        <v>125</v>
+      </c>
+      <c r="I143" t="s">
+        <v>129</v>
+      </c>
+      <c r="J143" t="s">
+        <v>129</v>
+      </c>
+      <c r="K143" t="s">
+        <v>133</v>
+      </c>
+      <c r="L143" t="s">
+        <v>226</v>
+      </c>
+      <c r="M143" t="s">
+        <v>324</v>
+      </c>
+      <c r="N143" t="s">
+        <v>422</v>
+      </c>
+      <c r="O143" t="s">
+        <v>428</v>
+      </c>
+      <c r="P143" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s">
+        <v>119</v>
+      </c>
+      <c r="H144" t="s">
+        <v>125</v>
+      </c>
+      <c r="I144" t="s">
+        <v>129</v>
+      </c>
+      <c r="J144" t="s">
+        <v>130</v>
+      </c>
+      <c r="K144" t="s">
+        <v>133</v>
+      </c>
+      <c r="L144" t="s">
+        <v>227</v>
+      </c>
+      <c r="M144" t="s">
+        <v>325</v>
+      </c>
+      <c r="N144" t="s">
+        <v>423</v>
+      </c>
+      <c r="O144" t="s">
+        <v>428</v>
+      </c>
+      <c r="P144" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145" t="s">
+        <v>120</v>
+      </c>
+      <c r="H145" t="s">
+        <v>125</v>
+      </c>
+      <c r="I145" t="s">
+        <v>130</v>
+      </c>
+      <c r="J145" t="s">
+        <v>126</v>
+      </c>
+      <c r="K145" t="s">
+        <v>133</v>
+      </c>
+      <c r="L145" t="s">
+        <v>228</v>
+      </c>
+      <c r="M145" t="s">
+        <v>326</v>
+      </c>
+      <c r="N145" t="s">
+        <v>424</v>
+      </c>
+      <c r="O145" t="s">
+        <v>428</v>
+      </c>
+      <c r="P145" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" t="s">
+        <v>23</v>
+      </c>
+      <c r="F146" t="s">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s">
+        <v>121</v>
+      </c>
+      <c r="H146" t="s">
+        <v>125</v>
+      </c>
+      <c r="I146" t="s">
+        <v>130</v>
+      </c>
+      <c r="J146" t="s">
+        <v>127</v>
+      </c>
+      <c r="K146" t="s">
+        <v>133</v>
+      </c>
+      <c r="L146" t="s">
+        <v>229</v>
+      </c>
+      <c r="M146" t="s">
+        <v>327</v>
+      </c>
+      <c r="N146" t="s">
+        <v>425</v>
+      </c>
+      <c r="O146" t="s">
+        <v>428</v>
+      </c>
+      <c r="P146" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147" t="s">
+        <v>122</v>
+      </c>
+      <c r="H147" t="s">
+        <v>125</v>
+      </c>
+      <c r="I147" t="s">
+        <v>130</v>
+      </c>
+      <c r="J147" t="s">
+        <v>130</v>
+      </c>
+      <c r="K147" t="s">
+        <v>133</v>
+      </c>
+      <c r="L147" t="s">
+        <v>230</v>
+      </c>
+      <c r="M147" t="s">
+        <v>328</v>
+      </c>
+      <c r="N147" t="s">
+        <v>426</v>
+      </c>
+      <c r="O147" t="s">
+        <v>428</v>
+      </c>
+      <c r="P147" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" t="s">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s">
+        <v>123</v>
+      </c>
+      <c r="H148" t="s">
+        <v>125</v>
+      </c>
+      <c r="I148" t="s">
+        <v>131</v>
+      </c>
+      <c r="J148" t="s">
+        <v>129</v>
+      </c>
+      <c r="K148" t="s">
+        <v>133</v>
+      </c>
+      <c r="L148" t="s">
+        <v>231</v>
+      </c>
+      <c r="M148" t="s">
+        <v>329</v>
+      </c>
+      <c r="N148" t="s">
+        <v>427</v>
+      </c>
+      <c r="O148" t="s">
+        <v>428</v>
+      </c>
+      <c r="P148" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
